--- a/diff fits all held constant (version 1).xlsx
+++ b/diff fits all held constant (version 1).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Documents\bioreactor-kinetic-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84399CEF-E868-48F9-A57D-719400BB4BE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5160BB-1F2F-49FB-BC41-9D8D7FFFAD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6153F770-635F-4804-9A16-19C39CE17E28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6153F770-635F-4804-9A16-19C39CE17E28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Error" sheetId="1" r:id="rId1"/>
+    <sheet name="Absolute Value" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Pearsons" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>R1P</t>
   </si>
@@ -75,12 +79,87 @@
   <si>
     <t>SE Of Average Error</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +174,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +210,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,19 +229,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -143,6 +304,1921 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Pearsons!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.00250312891114E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0442219440967899E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0859407592824401E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1276595744680899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Pearsons!$N$1:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0581742819680948E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0582066320318757E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0582386574270507E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0582698162731828E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0583002749140992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C859-4786-8124-309C282310D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536590104"/>
+        <c:axId val="527703208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536590104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527703208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527703208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536590104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Pearsons!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0074999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0050000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0025000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Pearsons!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6059159849723001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4857040227344969E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0870840881270414E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.73374135462531E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2562474075925545E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F11-4D96-9C76-3E0FB3008528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="671567680"/>
+        <c:axId val="671561120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="671567680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671561120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671561120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671567680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE236589-B47D-44B7-A858-4B0B573AFA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A91FC15-2690-4850-879A-D83E3EADD31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E3AA5A-1B82-483E-8259-37A9E84245F6}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:P74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,4 +6199,7086 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F486A2A-4112-4931-9A72-7A3C00D21E81}">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4">
+        <v>2.0581742819680948E-2</v>
+      </c>
+      <c r="B1">
+        <v>1.3790943646043571E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.13194685737738174</v>
+      </c>
+      <c r="D1">
+        <v>4.5938649328291351E-2</v>
+      </c>
+      <c r="E1">
+        <v>2.5140144558170718E-3</v>
+      </c>
+      <c r="F1">
+        <v>0.43342888426151416</v>
+      </c>
+      <c r="G1">
+        <v>2.8011204666245446E-2</v>
+      </c>
+      <c r="H1">
+        <v>1.0527642237712356</v>
+      </c>
+      <c r="I1">
+        <v>3.0666640234155995E-10</v>
+      </c>
+      <c r="J1">
+        <v>3.862430457258986</v>
+      </c>
+      <c r="K1">
+        <v>16.836190279828781</v>
+      </c>
+      <c r="L1">
+        <v>410164466.09331077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2.0582066320318757E-2</v>
+      </c>
+      <c r="B2">
+        <v>1.3826323160482391E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.13233116413945922</v>
+      </c>
+      <c r="D2">
+        <v>4.5938490271392754E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.4898873846777017E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.43477965249481215</v>
+      </c>
+      <c r="G2">
+        <v>2.8011204665687153E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.0562229812305948</v>
+      </c>
+      <c r="I2">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J2">
+        <v>3.8624367594101829</v>
+      </c>
+      <c r="K2">
+        <v>16.836180778146534</v>
+      </c>
+      <c r="L2">
+        <v>410168984.22738063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2.0582386574270507E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.3862171557542782E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.13270843088836604</v>
+      </c>
+      <c r="D3">
+        <v>4.5951370387275252E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.4679474865144818E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.43611171870027515</v>
+      </c>
+      <c r="G3">
+        <v>2.8011204576508283E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.0596303988743208</v>
+      </c>
+      <c r="I3">
+        <v>3.0666635203457915E-10</v>
+      </c>
+      <c r="J3">
+        <v>3.8624307412510697</v>
+      </c>
+      <c r="K3">
+        <v>16.836189869472943</v>
+      </c>
+      <c r="L3">
+        <v>410164668.64506996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2.0582698162731828E-2</v>
+      </c>
+      <c r="B4">
+        <v>1.3897565764302051E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.13308963683041874</v>
+      </c>
+      <c r="D4">
+        <v>4.593513007929495E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.4448317643990416E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.43745457659165016</v>
+      </c>
+      <c r="G4">
+        <v>2.8011204513814017E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.0630671097980997</v>
+      </c>
+      <c r="I4">
+        <v>3.0666633295262091E-10</v>
+      </c>
+      <c r="J4">
+        <v>3.8624317232592671</v>
+      </c>
+      <c r="K4">
+        <v>16.836188387210491</v>
+      </c>
+      <c r="L4">
+        <v>410165373.64918494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2.0583002749140992E-2</v>
+      </c>
+      <c r="B5">
+        <v>1.3933588080913951E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.13346968730637598</v>
+      </c>
+      <c r="D5">
+        <v>4.5932624324508953E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.4217865342753418E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.43879426021456513</v>
+      </c>
+      <c r="G5">
+        <v>2.8011204450987901E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0664982511426007</v>
+      </c>
+      <c r="I5">
+        <v>3.0666630172759834E-10</v>
+      </c>
+      <c r="J5">
+        <v>3.8624313789550637</v>
+      </c>
+      <c r="K5">
+        <v>16.836188916452862</v>
+      </c>
+      <c r="L5">
+        <v>410165125.61820686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.0665986982490586E-2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.6059159849723001E-4</v>
+      </c>
+      <c r="C6">
+        <v>0.12689114850678965</v>
+      </c>
+      <c r="D6">
+        <v>0.10028196790544575</v>
+      </c>
+      <c r="E6">
+        <v>4.8293978720520152E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.1880668356160462</v>
+      </c>
+      <c r="G6">
+        <v>2.7732105848440398E-2</v>
+      </c>
+      <c r="H6">
+        <v>7.9546095508121537</v>
+      </c>
+      <c r="I6">
+        <v>3.0669997271026705E-10</v>
+      </c>
+      <c r="J6">
+        <v>3.8624362741378637</v>
+      </c>
+      <c r="K6">
+        <v>16.836178664228918</v>
+      </c>
+      <c r="L6">
+        <v>410169560.89990658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.057948320818475E-2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.4857040227344969E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.13271426570526768</v>
+      </c>
+      <c r="D7">
+        <v>4.599823520956605E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.638046935617722E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.43498235702663912</v>
+      </c>
+      <c r="G7">
+        <v>2.8011204783285577E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.0571173367264577</v>
+      </c>
+      <c r="I7">
+        <v>3.0666648213883985E-10</v>
+      </c>
+      <c r="J7">
+        <v>3.8624307372458704</v>
+      </c>
+      <c r="K7">
+        <v>16.836190102883155</v>
+      </c>
+      <c r="L7">
+        <v>410164596.53473794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.0348005975601092E-2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.0870840881270414E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.13706206118457159</v>
+      </c>
+      <c r="D8">
+        <v>6.2326549151308183E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.9965063055797216E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.43855310969778016</v>
+      </c>
+      <c r="G8">
+        <v>2.80112047807956E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.0686985870906516</v>
+      </c>
+      <c r="I8">
+        <v>3.0666678224600119E-10</v>
+      </c>
+      <c r="J8">
+        <v>3.8624416343858083</v>
+      </c>
+      <c r="K8">
+        <v>16.836174620226597</v>
+      </c>
+      <c r="L8">
+        <v>410171574.23558044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.0284867726540808E-2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.73374135462531E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.14125091707816925</v>
+      </c>
+      <c r="D9">
+        <v>6.6989108074042181E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.7546543365783413E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.44121099958224014</v>
+      </c>
+      <c r="G9">
+        <v>2.8011204746644792E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.0793328908245448</v>
+      </c>
+      <c r="I9">
+        <v>3.0666749174790287E-10</v>
+      </c>
+      <c r="J9">
+        <v>3.8624495566856614</v>
+      </c>
+      <c r="K9">
+        <v>16.836161477461946</v>
+      </c>
+      <c r="L9">
+        <v>410176815.83379024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.0241428150833338E-2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7.2562474075925545E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.13567496354538627</v>
+      </c>
+      <c r="D10">
+        <v>6.6994858553684242E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.1307509286448918E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.52443376829664412</v>
+      </c>
+      <c r="G10">
+        <v>2.8011199244338255E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.2964993198655996</v>
+      </c>
+      <c r="I10">
+        <v>8.2069846201945906E-8</v>
+      </c>
+      <c r="J10">
+        <v>3.8624540947727919</v>
+      </c>
+      <c r="K10">
+        <v>16.836152721963135</v>
+      </c>
+      <c r="L10">
+        <v>410179785.38580817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.9624867338465735E-2</v>
+      </c>
+      <c r="B11">
+        <v>1.6855365071030672E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.5724822441016101E-3</v>
+      </c>
+      <c r="D11">
+        <v>6.5303791283154694E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.1384744643598451E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.50958957425708862</v>
+      </c>
+      <c r="G11">
+        <v>2.7343664533199936E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.2581830844215978</v>
+      </c>
+      <c r="I11">
+        <v>6.9467131642506064E-8</v>
+      </c>
+      <c r="J11">
+        <v>3.8624313890426363</v>
+      </c>
+      <c r="K11">
+        <v>16.836177742907108</v>
+      </c>
+      <c r="L11">
+        <v>410164509.0950532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.0600374494395456E-2</v>
+      </c>
+      <c r="B12">
+        <v>1.7004996403926942E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.8684620256567384E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.597644364601855E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.6438949483033917E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.54641413963546914</v>
+      </c>
+      <c r="G12">
+        <v>2.7321762406267169E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.3527546931350867</v>
+      </c>
+      <c r="I12">
+        <v>6.1371711428115372E-9</v>
+      </c>
+      <c r="J12">
+        <v>3.8624265238776125</v>
+      </c>
+      <c r="K12">
+        <v>16.836193116408857</v>
+      </c>
+      <c r="L12">
+        <v>410161756.99300694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.0519577725825938E-2</v>
+      </c>
+      <c r="B13">
+        <v>1.6769876909264982E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.17655390860792336</v>
+      </c>
+      <c r="D13">
+        <v>4.5958950667219348E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.2507832091219118E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.53883180926918817</v>
+      </c>
+      <c r="G13">
+        <v>2.7894940744423266E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.3313610305945156</v>
+      </c>
+      <c r="I13">
+        <v>3.7598403971814132E-8</v>
+      </c>
+      <c r="J13">
+        <v>3.8624427859950918</v>
+      </c>
+      <c r="K13">
+        <v>16.836168816419683</v>
+      </c>
+      <c r="L13">
+        <v>410173636.52983451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.0595516377092258E-2</v>
+      </c>
+      <c r="B14">
+        <v>1.8339524071299976E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.26233235080401418</v>
+      </c>
+      <c r="D14">
+        <v>4.7077757123609648E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.4870872539122969E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.66066582379256922</v>
+      </c>
+      <c r="G14">
+        <v>2.7536005294473882E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.4686522084803579</v>
+      </c>
+      <c r="I14">
+        <v>0.168258410192519</v>
+      </c>
+      <c r="J14">
+        <v>3.8624387318097582</v>
+      </c>
+      <c r="K14">
+        <v>16.836174618608371</v>
+      </c>
+      <c r="L14">
+        <v>410170940.26342058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.0472241279184122E-2</v>
+      </c>
+      <c r="B15">
+        <v>1.8331016496650178E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.34996675959651746</v>
+      </c>
+      <c r="D15">
+        <v>4.722369392859025E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.3973716293624363E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.66297506166318632</v>
+      </c>
+      <c r="G15">
+        <v>2.7285713823206412E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.4657858338343839</v>
+      </c>
+      <c r="I15">
+        <v>0.17291333479743098</v>
+      </c>
+      <c r="J15">
+        <v>3.862437662449179</v>
+      </c>
+      <c r="K15">
+        <v>16.836176262125928</v>
+      </c>
+      <c r="L15">
+        <v>410170295.20110595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.0584146094907194E-2</v>
+      </c>
+      <c r="B16">
+        <v>1.4507217339490642E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.13178545425390206</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.5573047344973E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.5362296594137616E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.43309344120444015</v>
+      </c>
+      <c r="G16">
+        <v>2.8011204784103804E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.0562751150231238</v>
+      </c>
+      <c r="I16">
+        <v>3.0666718296712414E-10</v>
+      </c>
+      <c r="J16">
+        <v>3.8624706793977777</v>
+      </c>
+      <c r="K16">
+        <v>16.836129781970012</v>
+      </c>
+      <c r="L16">
+        <v>410193272.81803387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.0582846844912087E-2</v>
+      </c>
+      <c r="B17">
+        <v>1.4053394583335183E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.13213008498447468</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.5819296283456955E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.4301018759866617E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.43447166591907815</v>
+      </c>
+      <c r="G17">
+        <v>2.8011204543870349E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.0563118244561376</v>
+      </c>
+      <c r="I17">
+        <v>3.0666636244292E-10</v>
+      </c>
+      <c r="J17">
+        <v>3.8624303921183958</v>
+      </c>
+      <c r="K17">
+        <v>16.836190503537928</v>
+      </c>
+      <c r="L17">
+        <v>410164389.18544316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2.0581721713625781E-2</v>
+      </c>
+      <c r="B18">
+        <v>1.3713254395891491E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.13247245132557994</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.6005197047562896E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.5212873090630816E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.43507997595383818</v>
+      </c>
+      <c r="G18">
+        <v>2.8011204679392786E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.0565251372048787</v>
+      </c>
+      <c r="I18">
+        <v>3.066663919332191E-10</v>
+      </c>
+      <c r="J18">
+        <v>3.8624306972464439</v>
+      </c>
+      <c r="K18">
+        <v>16.836189869877327</v>
+      </c>
+      <c r="L18">
+        <v>410164652.64179868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.058075402480599E-2</v>
+      </c>
+      <c r="B19">
+        <v>1.338935734658557E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.13280021821907276</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.6189629015934999E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.6178119861236817E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.43569153558418816</v>
+      </c>
+      <c r="G19">
+        <v>2.801120478325439E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.0567583503059748</v>
+      </c>
+      <c r="I19">
+        <v>3.0666643183185904E-10</v>
+      </c>
+      <c r="J19">
+        <v>3.8624344800639507</v>
+      </c>
+      <c r="K19">
+        <v>16.836184006246583</v>
+      </c>
+      <c r="L19">
+        <v>410167405.58602583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.0579926551374014E-2</v>
+      </c>
+      <c r="B20">
+        <v>1.3080825978275871E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.13310901950134704</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.6373695184900803E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.7249202947462019E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.43628116602695616</v>
+      </c>
+      <c r="G20">
+        <v>2.8011204784044622E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.0569683078333196</v>
+      </c>
+      <c r="I20">
+        <v>3.0666650295552156E-10</v>
+      </c>
+      <c r="J20">
+        <v>3.8624312451843701</v>
+      </c>
+      <c r="K20">
+        <v>16.836188737807532</v>
+      </c>
+      <c r="L20">
+        <v>410165126.65851563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.058210931446585E-2</v>
+      </c>
+      <c r="B21">
+        <v>1.3833722343480652E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.13236086620429593</v>
+      </c>
+      <c r="D21">
+        <v>4.5934321493746447E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.4860582412323802E-3</v>
+      </c>
+      <c r="F21">
+        <v>0.43489049615225617</v>
+      </c>
+      <c r="G21">
+        <v>2.8011204663184328E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.0565236793740518</v>
+      </c>
+      <c r="I21">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J21">
+        <v>3.8624363285767682</v>
+      </c>
+      <c r="K21">
+        <v>16.836178573524485</v>
+      </c>
+      <c r="L21">
+        <v>410169604.53719389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.0582037681943745E-2</v>
+      </c>
+      <c r="B22">
+        <v>1.3819299382320231E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.13234750246996579</v>
+      </c>
+      <c r="D22">
+        <v>4.5962890530865351E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.4953309992687498E-3</v>
+      </c>
+      <c r="F22">
+        <v>0.43482711138493213</v>
+      </c>
+      <c r="G22">
+        <v>2.8011204666353092E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.0563118903859476</v>
+      </c>
+      <c r="I22">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J22">
+        <v>3.8624196301571785</v>
+      </c>
+      <c r="K22">
+        <v>16.83621208258613</v>
+      </c>
+      <c r="L22">
+        <v>410154927.20900589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.0582013312712234E-2</v>
+      </c>
+      <c r="B23">
+        <v>1.3803707814364952E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.13233522261290265</v>
+      </c>
+      <c r="D23">
+        <v>4.5946985168720353E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.50428889492101E-3</v>
+      </c>
+      <c r="F23">
+        <v>0.43476630941383915</v>
+      </c>
+      <c r="G23">
+        <v>2.801120466895754E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.0560994095487408</v>
+      </c>
+      <c r="I23">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J23">
+        <v>3.8624027795220988</v>
+      </c>
+      <c r="K23">
+        <v>16.836245780555718</v>
+      </c>
+      <c r="L23">
+        <v>410140150.90609771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.058195507472858E-2</v>
+      </c>
+      <c r="B24">
+        <v>1.3788934029680882E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.1323223647211173</v>
+      </c>
+      <c r="D24">
+        <v>4.5959513547173751E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.513445247188243E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.43470430439996116</v>
+      </c>
+      <c r="G24">
+        <v>2.8011204671055716E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.0558887964729637</v>
+      </c>
+      <c r="I24">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J24">
+        <v>3.8623862254188586</v>
+      </c>
+      <c r="K24">
+        <v>16.836278991415224</v>
+      </c>
+      <c r="L24">
+        <v>410125598.20298672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.0581906031239879E-2</v>
+      </c>
+      <c r="B25">
+        <v>1.3774177424847812E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.13230945667961047</v>
+      </c>
+      <c r="D25">
+        <v>4.5971735708685055E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.5225862244066446E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.43464215551098917</v>
+      </c>
+      <c r="G25">
+        <v>2.8011204672833228E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.0556778998588097</v>
+      </c>
+      <c r="I25">
+        <v>3.066663919332191E-10</v>
+      </c>
+      <c r="J25">
+        <v>3.8623695424187958</v>
+      </c>
+      <c r="K25">
+        <v>16.836312356289572</v>
+      </c>
+      <c r="L25">
+        <v>410110963.15757006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.0536348870462601E-2</v>
+      </c>
+      <c r="B26">
+        <v>1.8327221999987642E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.12789049507958197</v>
+      </c>
+      <c r="D26">
+        <v>3.7422529161968351E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.3091737214234571E-4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.2719127368171301E-2</v>
+      </c>
+      <c r="G26">
+        <v>2.8011204784478067E-2</v>
+      </c>
+      <c r="H26">
+        <v>9.9999999999096154</v>
+      </c>
+      <c r="I26">
+        <v>3.0666773287446603E-10</v>
+      </c>
+      <c r="J26">
+        <v>3.8624706206976702</v>
+      </c>
+      <c r="K26">
+        <v>16.836492133514994</v>
+      </c>
+      <c r="L26">
+        <v>410205276.12762839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.0564207993997306E-2</v>
+      </c>
+      <c r="B27">
+        <v>1.3858420147437652E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.13241671024945653</v>
+      </c>
+      <c r="D27">
+        <v>4.9753945241845954E-2</v>
+      </c>
+      <c r="E27">
+        <v>6.7116352470914216E-3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.599263862313966</v>
+      </c>
+      <c r="G27">
+        <v>2.8011204784329287E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.0601277339858597</v>
+      </c>
+      <c r="I27">
+        <v>3.0666632254428006E-10</v>
+      </c>
+      <c r="J27">
+        <v>3.8624332197569751</v>
+      </c>
+      <c r="K27">
+        <v>16.836184718303759</v>
+      </c>
+      <c r="L27">
+        <v>410166846.71668237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2.0594017452888289E-2</v>
+      </c>
+      <c r="B28">
+        <v>1.3428122236161901E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.13275151885546685</v>
+      </c>
+      <c r="D28">
+        <v>4.958189818139605E-2</v>
+      </c>
+      <c r="E28">
+        <v>6.2658523060211222E-3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.187567628001172</v>
+      </c>
+      <c r="G28">
+        <v>2.7976414113903E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.0614376069775857</v>
+      </c>
+      <c r="I28">
+        <v>1.1195052582874121E-8</v>
+      </c>
+      <c r="J28">
+        <v>3.8624355609235752</v>
+      </c>
+      <c r="K28">
+        <v>16.836180065238835</v>
+      </c>
+      <c r="L28">
+        <v>410168920.23752928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.0605906554263597E-2</v>
+      </c>
+      <c r="B29">
+        <v>1.0861809897490152E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.13534760478587787</v>
+      </c>
+      <c r="D29">
+        <v>5.0159816197053453E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.5007460020421051E-2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.4471073224017779</v>
+      </c>
+      <c r="G29">
+        <v>2.7669561259857992E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.8617728777305117</v>
+      </c>
+      <c r="I29">
+        <v>4.6404492227980487E-10</v>
+      </c>
+      <c r="J29">
+        <v>3.8624360420989494</v>
+      </c>
+      <c r="K29">
+        <v>16.836179148373954</v>
+      </c>
+      <c r="L29">
+        <v>410169341.37858325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2.0620187320096212E-2</v>
+      </c>
+      <c r="B30">
+        <v>1.4232092327558201E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.13188465784034395</v>
+      </c>
+      <c r="D30">
+        <v>4.8891565030489949E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.1248829230772517E-3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.5052609422056831</v>
+      </c>
+      <c r="G30">
+        <v>2.8011204749069069E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.1395311820826257</v>
+      </c>
+      <c r="I30">
+        <v>3.066465623091652E-10</v>
+      </c>
+      <c r="J30">
+        <v>3.8624362005241077</v>
+      </c>
+      <c r="K30">
+        <v>16.836178845404181</v>
+      </c>
+      <c r="L30">
+        <v>410169480.82398438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2.0582061603493254E-2</v>
+      </c>
+      <c r="B31">
+        <v>1.3834531658785291E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.13234887045565691</v>
+      </c>
+      <c r="D31">
+        <v>4.5937982277355752E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.4852704082880418E-3</v>
+      </c>
+      <c r="F31">
+        <v>0.43508910214652718</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.8011204296286688E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.0564385527205378</v>
+      </c>
+      <c r="I31">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="J31">
+        <v>3.8624275118555804</v>
+      </c>
+      <c r="K31">
+        <v>16.836194746540851</v>
+      </c>
+      <c r="L31">
+        <v>410162351.07729471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2.0582076194100202E-2</v>
+      </c>
+      <c r="B32">
+        <v>1.3831776081909022E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.13235325628500069</v>
+      </c>
+      <c r="D32">
+        <v>4.5937199370231246E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.4871729569727217E-3</v>
+      </c>
+      <c r="F32">
+        <v>0.43498697373975714</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.80112046843272E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.0564512248801168</v>
+      </c>
+      <c r="I32">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="J32">
+        <v>3.8624305943142931</v>
+      </c>
+      <c r="K32">
+        <v>16.836190083355653</v>
+      </c>
+      <c r="L32">
+        <v>410164563.73382473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.0582090711383314E-2</v>
+      </c>
+      <c r="B33">
+        <v>1.3828450602429522E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.13235658398455943</v>
+      </c>
+      <c r="D33">
+        <v>4.5921356242977149E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.4888973335962217E-3</v>
+      </c>
+      <c r="F33">
+        <v>0.43488105135115618</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2.801120407189886E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.0564509096630927</v>
+      </c>
+      <c r="I33">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J33">
+        <v>3.8624305932697807</v>
+      </c>
+      <c r="K33">
+        <v>16.836190084921803</v>
+      </c>
+      <c r="L33">
+        <v>410164562.98662198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2.0582060686250278E-2</v>
+      </c>
+      <c r="B34">
+        <v>1.3826540324584712E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.13236179767161621</v>
+      </c>
+      <c r="D34">
+        <v>4.5945794339817853E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.4902340485186917E-3</v>
+      </c>
+      <c r="F34">
+        <v>0.43478240055345918</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2.8011204458868243E-2</v>
+      </c>
+      <c r="H34">
+        <v>1.0564768117203327</v>
+      </c>
+      <c r="I34">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J34">
+        <v>3.8624367764162968</v>
+      </c>
+      <c r="K34">
+        <v>16.83618075022418</v>
+      </c>
+      <c r="L34">
+        <v>410168999.01503921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2.0582089265981277E-2</v>
+      </c>
+      <c r="B35">
+        <v>1.38230747344164E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.1323620127660653</v>
+      </c>
+      <c r="D35">
+        <v>4.5936395154355547E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.4926642425883616E-3</v>
+      </c>
+      <c r="F35">
+        <v>0.43466644552722311</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2.801120484578605E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.0564505436077527</v>
+      </c>
+      <c r="I35">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J35">
+        <v>3.8624305945426092</v>
+      </c>
+      <c r="K35">
+        <v>16.836190082971569</v>
+      </c>
+      <c r="L35">
+        <v>410164563.90608162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2.0616518839753614E-2</v>
+      </c>
+      <c r="B36">
+        <v>1.8158912815011089E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.12816949798872171</v>
+      </c>
+      <c r="D36">
+        <v>4.2712830030967951E-2</v>
+      </c>
+      <c r="E36">
+        <v>8.2554927108737103E-3</v>
+      </c>
+      <c r="F36">
+        <v>0.61335568793875561</v>
+      </c>
+      <c r="G36">
+        <v>2.6525199241721815E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.0000022204460493E-8</v>
+      </c>
+      <c r="I36">
+        <v>1.1903020692811593E-2</v>
+      </c>
+      <c r="J36">
+        <v>3.8624330596361101</v>
+      </c>
+      <c r="K36">
+        <v>16.836197298660704</v>
+      </c>
+      <c r="L36">
+        <v>410167134.3842923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2.0581821708790429E-2</v>
+      </c>
+      <c r="B37">
+        <v>1.675310569697426E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.12943386065413706</v>
+      </c>
+      <c r="D37">
+        <v>4.5966273392116147E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.530021672153362E-3</v>
+      </c>
+      <c r="F37">
+        <v>0.53892743115152586</v>
+      </c>
+      <c r="G37">
+        <v>2.7484220059093647E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.279001756526065</v>
+      </c>
+      <c r="I37">
+        <v>3.1619985917802351E-9</v>
+      </c>
+      <c r="J37">
+        <v>3.8624306266779529</v>
+      </c>
+      <c r="K37">
+        <v>16.836190014841982</v>
+      </c>
+      <c r="L37">
+        <v>410164591.39359951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2.058169308724965E-2</v>
+      </c>
+      <c r="B38">
+        <v>1.6711138006243281E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.12949717378376696</v>
+      </c>
+      <c r="D38">
+        <v>4.6006008763876949E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.6044997039232319E-3</v>
+      </c>
+      <c r="F38">
+        <v>0.53819870375826862</v>
+      </c>
+      <c r="G38">
+        <v>2.7597468385463935E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>4.5531049472130505</v>
+      </c>
+      <c r="I38">
+        <v>1.6846246030099987E-9</v>
+      </c>
+      <c r="J38">
+        <v>3.862467120176968</v>
+      </c>
+      <c r="K38">
+        <v>16.836134842950141</v>
+      </c>
+      <c r="L38">
+        <v>410190805.15608186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2.0581768416168541E-2</v>
+      </c>
+      <c r="B39">
+        <v>1.6674459072818473E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.12951782522994335</v>
+      </c>
+      <c r="D39">
+        <v>4.6017808015743948E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.7287966120915618E-3</v>
+      </c>
+      <c r="F39">
+        <v>0.53709898592592298</v>
+      </c>
+      <c r="G39">
+        <v>2.7754782889233925E-2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>6.8129585457475716</v>
+      </c>
+      <c r="I39">
+        <v>1.2757629432036399E-9</v>
+      </c>
+      <c r="J39">
+        <v>3.862430628568132</v>
+      </c>
+      <c r="K39">
+        <v>16.836189996415644</v>
+      </c>
+      <c r="L39">
+        <v>410164596.59014297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.0581640913818925E-2</v>
+      </c>
+      <c r="B40">
+        <v>1.7022549058681061E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.12916573335736611</v>
+      </c>
+      <c r="D40">
+        <v>4.6424638933164751E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.5734231943921118E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.54920200917780637</v>
+      </c>
+      <c r="G40">
+        <v>2.7948777512046337E-2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>9.2240977308758723</v>
+      </c>
+      <c r="I40">
+        <v>4.1072041826600847E-9</v>
+      </c>
+      <c r="J40">
+        <v>3.8624306664187666</v>
+      </c>
+      <c r="K40">
+        <v>16.836189937353371</v>
+      </c>
+      <c r="L40">
+        <v>410164624.20663869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.0581601941584551E-2</v>
+      </c>
+      <c r="B41">
+        <v>1.3826125661458051E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.13235917258700389</v>
+      </c>
+      <c r="D41">
+        <v>4.598686290592665E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.4853079197601018E-3</v>
+      </c>
+      <c r="F41">
+        <v>0.43726630609992012</v>
+      </c>
+      <c r="G41">
+        <v>2.8011204585046679E-2</v>
+      </c>
+      <c r="H41">
+        <v>1.0561097435140308</v>
+      </c>
+      <c r="I41" s="4">
+        <v>4.2354218569619302E-14</v>
+      </c>
+      <c r="J41">
+        <v>3.8624307871385146</v>
+      </c>
+      <c r="K41">
+        <v>16.836189749286412</v>
+      </c>
+      <c r="L41">
+        <v>410164712.13149357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2.0583750027584155E-2</v>
+      </c>
+      <c r="B42">
+        <v>1.3838312461300281E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.1323463551248262</v>
+      </c>
+      <c r="D42">
+        <v>4.5729451725188351E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.5055994474117316E-3</v>
+      </c>
+      <c r="F42">
+        <v>0.42667593055494613</v>
+      </c>
+      <c r="G42">
+        <v>2.8011204771392337E-2</v>
+      </c>
+      <c r="H42">
+        <v>1.0575636628077667</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4.2500725161431774E-14</v>
+      </c>
+      <c r="J42">
+        <v>3.8624303419353399</v>
+      </c>
+      <c r="K42">
+        <v>16.836190614420762</v>
+      </c>
+      <c r="L42">
+        <v>410164347.29280227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.0585768181077917E-2</v>
+      </c>
+      <c r="B43">
+        <v>1.3849588039597351E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.13233475825810331</v>
+      </c>
+      <c r="D43">
+        <v>4.5443469534400149E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.5295037999011217E-3</v>
+      </c>
+      <c r="F43">
+        <v>0.41664223452299715</v>
+      </c>
+      <c r="G43">
+        <v>2.8011204783483911E-2</v>
+      </c>
+      <c r="H43">
+        <v>1.0588142904689037</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4.2590930782182568E-14</v>
+      </c>
+      <c r="J43">
+        <v>3.8624300160444056</v>
+      </c>
+      <c r="K43">
+        <v>16.836191302769507</v>
+      </c>
+      <c r="L43">
+        <v>410164068.13061029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2.0587690225692228E-2</v>
+      </c>
+      <c r="B44">
+        <v>1.3860034446166441E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.13232471439935065</v>
+      </c>
+      <c r="D44">
+        <v>4.519104231335265E-2</v>
+      </c>
+      <c r="E44">
+        <v>2.5529869288842318E-3</v>
+      </c>
+      <c r="F44">
+        <v>0.40709483233626914</v>
+      </c>
+      <c r="G44">
+        <v>2.8011204783713998E-2</v>
+      </c>
+      <c r="H44">
+        <v>1.0598996065688717</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4.3007264416417001E-14</v>
+      </c>
+      <c r="J44">
+        <v>3.8624307072514004</v>
+      </c>
+      <c r="K44">
+        <v>16.83619045622547</v>
+      </c>
+      <c r="L44">
+        <v>410164519.19493884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2.058952949138107E-2</v>
+      </c>
+      <c r="B45">
+        <v>1.386897657030282E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.13231508473287226</v>
+      </c>
+      <c r="D45">
+        <v>4.4947169895568947E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.5731360018702819E-3</v>
+      </c>
+      <c r="F45">
+        <v>0.39798096902288815</v>
+      </c>
+      <c r="G45">
+        <v>2.8011204783810455E-2</v>
+      </c>
+      <c r="H45">
+        <v>1.0608337885508308</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4.2993386628609187E-14</v>
+      </c>
+      <c r="J45">
+        <v>3.8624293592058283</v>
+      </c>
+      <c r="K45">
+        <v>16.836192699121806</v>
+      </c>
+      <c r="L45">
+        <v>410163506.51297718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.0675714262197394E-2</v>
+      </c>
+      <c r="B46">
+        <v>1.0066347806007691E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.13596608240340058</v>
+      </c>
+      <c r="D46">
+        <v>4.1783200395136846E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.0347717106730294E-9</v>
+      </c>
+      <c r="F46">
+        <v>0.31497852339121912</v>
+      </c>
+      <c r="G46">
+        <v>2.7508839224274544E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.73975661670930171</v>
+      </c>
+      <c r="I46">
+        <v>3.0667302204634428E-10</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.500017027205701</v>
+      </c>
+      <c r="K46">
+        <v>16.836092075561929</v>
+      </c>
+      <c r="L46">
+        <v>410174109.80333436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2.0477295533983638E-2</v>
+      </c>
+      <c r="B47">
+        <v>1.4014076021741671E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.13223466455373314</v>
+      </c>
+      <c r="D47">
+        <v>4.4984505905907149E-2</v>
+      </c>
+      <c r="E47">
+        <v>6.8566771473409867E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.49131839721135817</v>
+      </c>
+      <c r="G47">
+        <v>2.8011204754213839E-2</v>
+      </c>
+      <c r="H47">
+        <v>1.0944277106267286</v>
+      </c>
+      <c r="I47">
+        <v>0.1050359237849128</v>
+      </c>
+      <c r="J47" s="4">
+        <v>2.1250126251966326</v>
+      </c>
+      <c r="K47">
+        <v>16.83613736957113</v>
+      </c>
+      <c r="L47">
+        <v>410175233.95467472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.0452709992642142E-2</v>
+      </c>
+      <c r="B48">
+        <v>1.4023258558350201E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.13234251827289928</v>
+      </c>
+      <c r="D48">
+        <v>4.8302670305323751E-2</v>
+      </c>
+      <c r="E48">
+        <v>4.0817866456735012E-3</v>
+      </c>
+      <c r="F48">
+        <v>0.44019095848785517</v>
+      </c>
+      <c r="G48">
+        <v>2.8011204783038535E-2</v>
+      </c>
+      <c r="H48">
+        <v>1.0712613544920997</v>
+      </c>
+      <c r="I48">
+        <v>3.0666750215624372E-10</v>
+      </c>
+      <c r="J48" s="4">
+        <v>2.7500132247774749</v>
+      </c>
+      <c r="K48">
+        <v>16.836150775039631</v>
+      </c>
+      <c r="L48">
+        <v>410177275.60329235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2.0543410211957453E-2</v>
+      </c>
+      <c r="B49">
+        <v>1.3837221634777342E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.13238696269617839</v>
+      </c>
+      <c r="D49">
+        <v>4.5656599165619753E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.4884234748729817E-3</v>
+      </c>
+      <c r="F49">
+        <v>0.43603474201890013</v>
+      </c>
+      <c r="G49">
+        <v>2.8011204520723532E-2</v>
+      </c>
+      <c r="H49">
+        <v>1.0599785370128387</v>
+      </c>
+      <c r="I49">
+        <v>3.0666640234155995E-10</v>
+      </c>
+      <c r="J49" s="4">
+        <v>3.3749955833323075</v>
+      </c>
+      <c r="K49">
+        <v>16.83619005058738</v>
+      </c>
+      <c r="L49">
+        <v>410165608.97526205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2.0609534034488473E-2</v>
+      </c>
+      <c r="B50">
+        <v>1.3825587401562821E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.13233262611617955</v>
+      </c>
+      <c r="D50">
+        <v>4.5945582318920847E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.4853370791728716E-3</v>
+      </c>
+      <c r="F50">
+        <v>0.43463098315237114</v>
+      </c>
+      <c r="G50">
+        <v>2.8011204595969751E-2</v>
+      </c>
+      <c r="H50">
+        <v>1.0556376654090667</v>
+      </c>
+      <c r="I50">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J50" s="4">
+        <v>3.9999955880217812</v>
+      </c>
+      <c r="K50">
+        <v>16.836187663530691</v>
+      </c>
+      <c r="L50">
+        <v>410165495.67857516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1.970564450243599E-2</v>
+      </c>
+      <c r="B51">
+        <v>9.2860172511999607E-3</v>
+      </c>
+      <c r="C51">
+        <v>1.6087794575433564E-2</v>
+      </c>
+      <c r="D51">
+        <v>5.5807530485530027E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.257259606823752E-10</v>
+      </c>
+      <c r="F51">
+        <v>0.34572615444935118</v>
+      </c>
+      <c r="G51">
+        <v>2.7303517310535989E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.78524251479817975</v>
+      </c>
+      <c r="I51">
+        <v>1.5415681127450842E-9</v>
+      </c>
+      <c r="J51">
+        <v>3.1239499713299188</v>
+      </c>
+      <c r="K51" s="4">
+        <v>10.574377346470772</v>
+      </c>
+      <c r="L51">
+        <v>217241229.71694574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1.9680286896813691E-2</v>
+      </c>
+      <c r="B52">
+        <v>1.4265756247054902E-2</v>
+      </c>
+      <c r="C52">
+        <v>5.7746085233275624E-3</v>
+      </c>
+      <c r="D52">
+        <v>6.1967710714640682E-2</v>
+      </c>
+      <c r="E52">
+        <v>2.2570375567978161E-10</v>
+      </c>
+      <c r="F52">
+        <v>0.74797557641077617</v>
+      </c>
+      <c r="G52">
+        <v>2.7598123103940896E-2</v>
+      </c>
+      <c r="H52">
+        <v>1.3646458029134718</v>
+      </c>
+      <c r="I52">
+        <v>0.430341654173378</v>
+      </c>
+      <c r="J52">
+        <v>3.5245072807648499</v>
+      </c>
+      <c r="K52" s="4">
+        <v>11.202598759654302</v>
+      </c>
+      <c r="L52">
+        <v>200196189.60492173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2.0009510493968305E-2</v>
+      </c>
+      <c r="B53">
+        <v>1.412049264543894E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.13272338420719682</v>
+      </c>
+      <c r="D53">
+        <v>5.158166122325971E-2</v>
+      </c>
+      <c r="E53">
+        <v>5.8021013131654715E-3</v>
+      </c>
+      <c r="F53">
+        <v>0.43679074148364416</v>
+      </c>
+      <c r="G53">
+        <v>2.8011204784110573E-2</v>
+      </c>
+      <c r="H53">
+        <v>1.0641029494353327</v>
+      </c>
+      <c r="I53">
+        <v>3.066670632712043E-10</v>
+      </c>
+      <c r="J53">
+        <v>3.8624247055279306</v>
+      </c>
+      <c r="K53" s="4">
+        <v>14.000014411321207</v>
+      </c>
+      <c r="L53">
+        <v>410161117.50651902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2.030808740648472E-2</v>
+      </c>
+      <c r="B54">
+        <v>1.394251751874628E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.13251470657616049</v>
+      </c>
+      <c r="D54">
+        <v>4.9331366328054849E-2</v>
+      </c>
+      <c r="E54">
+        <v>2.520809813551482E-3</v>
+      </c>
+      <c r="F54">
+        <v>0.43570869686621216</v>
+      </c>
+      <c r="G54">
+        <v>2.8011204558443019E-2</v>
+      </c>
+      <c r="H54">
+        <v>1.0594215297065157</v>
+      </c>
+      <c r="I54">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="J54">
+        <v>3.8624255863908097</v>
+      </c>
+      <c r="K54" s="4">
+        <v>16.000017460608717</v>
+      </c>
+      <c r="L54">
+        <v>410161185.82197005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2.0657123612810371E-2</v>
+      </c>
+      <c r="B55">
+        <v>1.3824615358325541E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.132292143593147</v>
+      </c>
+      <c r="D55">
+        <v>4.5888600030822749E-2</v>
+      </c>
+      <c r="E55">
+        <v>2.5241827205579317E-3</v>
+      </c>
+      <c r="F55">
+        <v>0.43440740249744414</v>
+      </c>
+      <c r="G55">
+        <v>2.8011204633107703E-2</v>
+      </c>
+      <c r="H55">
+        <v>1.0549982140087257</v>
+      </c>
+      <c r="I55">
+        <v>3.0666640234155995E-10</v>
+      </c>
+      <c r="J55">
+        <v>3.8624417676015024</v>
+      </c>
+      <c r="K55" s="4">
+        <v>17.999993082151459</v>
+      </c>
+      <c r="L55">
+        <v>410172654.4296174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2.0183281331897916E-2</v>
+      </c>
+      <c r="B56">
+        <v>1.3764787868517852E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.13281905687895582</v>
+      </c>
+      <c r="D56">
+        <v>4.223653825186615E-2</v>
+      </c>
+      <c r="E56">
+        <v>2.495022075335202E-3</v>
+      </c>
+      <c r="F56">
+        <v>0.43631557107577412</v>
+      </c>
+      <c r="G56">
+        <v>2.801120468530199E-2</v>
+      </c>
+      <c r="H56">
+        <v>1.0597290813319038</v>
+      </c>
+      <c r="I56">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="J56">
+        <v>3.8624302042926506</v>
+      </c>
+      <c r="K56">
+        <v>16.836190674126151</v>
+      </c>
+      <c r="L56" s="4">
+        <v>39999481.047737971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2.0516111203114796E-2</v>
+      </c>
+      <c r="B57">
+        <v>1.3836676648654782E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.13241431298858861</v>
+      </c>
+      <c r="D57">
+        <v>4.6027529793504253E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.4857524750656616E-3</v>
+      </c>
+      <c r="F57">
+        <v>0.43507474154155112</v>
+      </c>
+      <c r="G57">
+        <v>2.8011204659906419E-2</v>
+      </c>
+      <c r="H57">
+        <v>1.0569935124852228</v>
+      </c>
+      <c r="I57">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="J57">
+        <v>3.8624305942531452</v>
+      </c>
+      <c r="K57">
+        <v>16.836190083433841</v>
+      </c>
+      <c r="L57" s="4">
+        <v>342495790.80168349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2.0110451801103699E-2</v>
+      </c>
+      <c r="B58">
+        <v>1.3928016115612892E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.13264970472227197</v>
+      </c>
+      <c r="D58">
+        <v>4.8429299760550951E-2</v>
+      </c>
+      <c r="E58">
+        <v>2.4718969730782017E-3</v>
+      </c>
+      <c r="F58">
+        <v>0.43599575655386114</v>
+      </c>
+      <c r="G58">
+        <v>2.8011204566147526E-2</v>
+      </c>
+      <c r="H58">
+        <v>1.0597041089778167</v>
+      </c>
+      <c r="I58">
+        <v>3.0666636244292E-10</v>
+      </c>
+      <c r="J58">
+        <v>3.8622822028757651</v>
+      </c>
+      <c r="K58">
+        <v>16.83641428124168</v>
+      </c>
+      <c r="L58" s="4">
+        <v>644824503.22121215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1.9787407119875994E-2</v>
+      </c>
+      <c r="B59">
+        <v>1.4609663137566592E-2</v>
+      </c>
+      <c r="C59">
+        <v>0.13249329645293909</v>
+      </c>
+      <c r="D59">
+        <v>6.7824140989481835E-2</v>
+      </c>
+      <c r="E59">
+        <v>7.0619429476929015E-3</v>
+      </c>
+      <c r="F59">
+        <v>0.43612809878219716</v>
+      </c>
+      <c r="G59">
+        <v>2.8011204429925048E-2</v>
+      </c>
+      <c r="H59">
+        <v>1.0629862755002728</v>
+      </c>
+      <c r="I59">
+        <v>3.0666694184056098E-10</v>
+      </c>
+      <c r="J59">
+        <v>3.8624305943209589</v>
+      </c>
+      <c r="K59">
+        <v>16.836190083331299</v>
+      </c>
+      <c r="L59" s="4">
+        <v>947488355.68796098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.9638086369068244E-2</v>
+      </c>
+      <c r="B60">
+        <v>1.4525197595103291E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.13258844032124362</v>
+      </c>
+      <c r="D60">
+        <v>6.4787163252997187E-2</v>
+      </c>
+      <c r="E60">
+        <v>6.8914519441771417E-3</v>
+      </c>
+      <c r="F60">
+        <v>0.43623912908477114</v>
+      </c>
+      <c r="G60">
+        <v>2.8011204784085586E-2</v>
+      </c>
+      <c r="H60">
+        <v>1.0631452413086158</v>
+      </c>
+      <c r="I60">
+        <v>3.0666689326830365E-10</v>
+      </c>
+      <c r="J60">
+        <v>3.8621770135072979</v>
+      </c>
+      <c r="K60">
+        <v>16.836572729904077</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1249429484.5678437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA42259E-EE8F-4E8B-90A3-B48323A6F2B1}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.99992121661912237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.99984243944506579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.99978991926008776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7.2234121522049833E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9.933221293430315E-13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9.933221293430315E-13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>19037.298514131082</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.3942257761385877E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.5653304936186788E-16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.2177683120622626E-17</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9.9347866239239337E-13</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2.0566935988696133E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.1197453841782476E-7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>183675.11292569141</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3.5589328955881859E-16</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2.0566579635740059E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2.0567292341652207E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.0566579635740059E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2.0567292341652207E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7">
+        <v>7.5546280955796562E-4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.4753316405216939E-6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>137.97571711765474</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.3942257761385877E-7</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7.3803786060838434E-4</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7.7288775850754691E-4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.3803786060838434E-4</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7.7288775850754691E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CA8066-695D-4E2D-8296-72817925DFF7}">
+  <dimension ref="A1:AM61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="B1">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D1">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E1">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F1">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G1">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H1">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I1">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J1">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K1">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L1">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2.0581742819680948E-2</v>
+      </c>
+      <c r="O1">
+        <v>1.3790943646043571E-2</v>
+      </c>
+      <c r="P1">
+        <v>0.13194685737738174</v>
+      </c>
+      <c r="Q1">
+        <v>4.5938649328291351E-2</v>
+      </c>
+      <c r="R1">
+        <v>2.5140144558170718E-3</v>
+      </c>
+      <c r="S1">
+        <v>0.43342888426151416</v>
+      </c>
+      <c r="T1">
+        <v>2.8011204666245446E-2</v>
+      </c>
+      <c r="U1">
+        <v>1.0527642237712356</v>
+      </c>
+      <c r="V1">
+        <v>3.0666640234155995E-10</v>
+      </c>
+      <c r="W1">
+        <v>3.862430457258986</v>
+      </c>
+      <c r="X1">
+        <v>16.836190279828781</v>
+      </c>
+      <c r="Y1">
+        <v>410164466.09331077</v>
+      </c>
+      <c r="AA1">
+        <f>PEARSON($A1:$A5,N1:N5)</f>
+        <v>0.99992121661912237</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" ref="AB1:AL1" si="0">PEARSON($A1:$A5,O1:O5)</f>
+        <v>0.99999569837767821</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>0.99999701213793157</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>-0.33731167203717383</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>-0.9999220554991618</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>0.99999832122296961</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>-0.97506825227613347</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>0.99999809691165653</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>-0.99652238688397254</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>-0.19483263332339593</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>0.19733684290163783</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>-0.19502551842307736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>2.00250312891114E-2</v>
+      </c>
+      <c r="B2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D2">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G2">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I2">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J2">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K2">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L2">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2.0582066320318757E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.3826323160482391E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.13233116413945922</v>
+      </c>
+      <c r="Q2">
+        <v>4.5938490271392754E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.4898873846777017E-3</v>
+      </c>
+      <c r="S2">
+        <v>0.43477965249481215</v>
+      </c>
+      <c r="T2">
+        <v>2.8011204665687153E-2</v>
+      </c>
+      <c r="U2">
+        <v>1.0562229812305948</v>
+      </c>
+      <c r="V2">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W2">
+        <v>3.8624367594101829</v>
+      </c>
+      <c r="X2">
+        <v>16.836180778146534</v>
+      </c>
+      <c r="Y2">
+        <v>410168984.22738063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2.0442219440967899E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D3">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G3">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I3">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J3">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K3">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L3">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2.0582386574270507E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.3862171557542782E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.13270843088836604</v>
+      </c>
+      <c r="Q3">
+        <v>4.5951370387275252E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.4679474865144818E-3</v>
+      </c>
+      <c r="S3">
+        <v>0.43611171870027515</v>
+      </c>
+      <c r="T3">
+        <v>2.8011204576508283E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.0596303988743208</v>
+      </c>
+      <c r="V3">
+        <v>3.0666635203457915E-10</v>
+      </c>
+      <c r="W3">
+        <v>3.8624307412510697</v>
+      </c>
+      <c r="X3">
+        <v>16.836189869472943</v>
+      </c>
+      <c r="Y3">
+        <v>410164668.64506996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2.0859407592824401E-2</v>
+      </c>
+      <c r="B4">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D4">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G4">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I4">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J4">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K4">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L4">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2.0582698162731828E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.3897565764302051E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.13308963683041874</v>
+      </c>
+      <c r="Q4">
+        <v>4.593513007929495E-2</v>
+      </c>
+      <c r="R4">
+        <v>2.4448317643990416E-3</v>
+      </c>
+      <c r="S4">
+        <v>0.43745457659165016</v>
+      </c>
+      <c r="T4">
+        <v>2.8011204513814017E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.0630671097980997</v>
+      </c>
+      <c r="V4">
+        <v>3.0666633295262091E-10</v>
+      </c>
+      <c r="W4">
+        <v>3.8624317232592671</v>
+      </c>
+      <c r="X4">
+        <v>16.836188387210491</v>
+      </c>
+      <c r="Y4">
+        <v>410165373.64918494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="B5">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D5">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G5">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I5">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J5">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K5">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L5">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.0583002749140992E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.3933588080913951E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.13346968730637598</v>
+      </c>
+      <c r="Q5">
+        <v>4.5932624324508953E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.4217865342753418E-3</v>
+      </c>
+      <c r="S5">
+        <v>0.43879426021456513</v>
+      </c>
+      <c r="T5">
+        <v>2.8011204450987901E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.0664982511426007</v>
+      </c>
+      <c r="V5">
+        <v>3.0666630172759834E-10</v>
+      </c>
+      <c r="W5">
+        <v>3.8624313789550637</v>
+      </c>
+      <c r="X5">
+        <v>16.836188916452862</v>
+      </c>
+      <c r="Y5">
+        <v>410165125.61820686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C6">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D6">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G6">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I6">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J6">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K6">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L6">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N6">
+        <v>2.0665986982490586E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5.6059159849723001E-4</v>
+      </c>
+      <c r="P6">
+        <v>0.12689114850678965</v>
+      </c>
+      <c r="Q6">
+        <v>0.10028196790544575</v>
+      </c>
+      <c r="R6">
+        <v>4.8293978720520152E-2</v>
+      </c>
+      <c r="S6">
+        <v>3.1880668356160462</v>
+      </c>
+      <c r="T6">
+        <v>2.7732105848440398E-2</v>
+      </c>
+      <c r="U6">
+        <v>7.9546095508121537</v>
+      </c>
+      <c r="V6">
+        <v>3.0669997271026705E-10</v>
+      </c>
+      <c r="W6">
+        <v>3.8624362741378637</v>
+      </c>
+      <c r="X6">
+        <v>16.836178664228918</v>
+      </c>
+      <c r="Y6">
+        <v>410169560.89990658</v>
+      </c>
+      <c r="AB6">
+        <f>PEARSON($B6:$B10,O6:O10)</f>
+        <v>0.99335364959419969</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AM6" si="1">PEARSON($B6:$B10,P6:P10)</f>
+        <v>0.7719108568836256</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>-0.36506639761662352</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>-0.65861554642061515</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
+        <v>-0.68922326687783653</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="1"/>
+        <v>0.70709623453774095</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="1"/>
+        <v>-0.68788003987379953</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="1"/>
+        <v>0.70710657115819575</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="1"/>
+        <v>0.90504215333068494</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="1"/>
+        <v>-0.8680634035050161</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="1"/>
+        <v>0.86190926659864908</v>
+      </c>
+      <c r="AM6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.0074999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D7">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G7">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I7">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J7">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K7">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L7">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N7">
+        <v>2.057948320818475E-2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1.4857040227344969E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.13271426570526768</v>
+      </c>
+      <c r="Q7">
+        <v>4.599823520956605E-2</v>
+      </c>
+      <c r="R7">
+        <v>2.638046935617722E-3</v>
+      </c>
+      <c r="S7">
+        <v>0.43498235702663912</v>
+      </c>
+      <c r="T7">
+        <v>2.8011204783285577E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.0571173367264577</v>
+      </c>
+      <c r="V7">
+        <v>3.0666648213883985E-10</v>
+      </c>
+      <c r="W7">
+        <v>3.8624307372458704</v>
+      </c>
+      <c r="X7">
+        <v>16.836190102883155</v>
+      </c>
+      <c r="Y7">
+        <v>410164596.53473794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4.0050000000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D8">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G8">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I8">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J8">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K8">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L8">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N8">
+        <v>2.0348005975601092E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3.0870840881270414E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.13706206118457159</v>
+      </c>
+      <c r="Q8">
+        <v>6.2326549151308183E-2</v>
+      </c>
+      <c r="R8">
+        <v>3.9965063055797216E-3</v>
+      </c>
+      <c r="S8">
+        <v>0.43855310969778016</v>
+      </c>
+      <c r="T8">
+        <v>2.80112047807956E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.0686985870906516</v>
+      </c>
+      <c r="V8">
+        <v>3.0666678224600119E-10</v>
+      </c>
+      <c r="W8">
+        <v>3.8624416343858083</v>
+      </c>
+      <c r="X8">
+        <v>16.836174620226597</v>
+      </c>
+      <c r="Y8">
+        <v>410171574.23558044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6.0025000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D9">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F9">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G9">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I9">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J9">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K9">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L9">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N9">
+        <v>2.0284867726540808E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>4.73374135462531E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.14125091707816925</v>
+      </c>
+      <c r="Q9">
+        <v>6.6989108074042181E-2</v>
+      </c>
+      <c r="R9">
+        <v>9.7546543365783413E-3</v>
+      </c>
+      <c r="S9">
+        <v>0.44121099958224014</v>
+      </c>
+      <c r="T9">
+        <v>2.8011204746644792E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.0793328908245448</v>
+      </c>
+      <c r="V9">
+        <v>3.0666749174790287E-10</v>
+      </c>
+      <c r="W9">
+        <v>3.8624495566856614</v>
+      </c>
+      <c r="X9">
+        <v>16.836161477461946</v>
+      </c>
+      <c r="Y9">
+        <v>410176815.83379024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="C10">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D10">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G10">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I10">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J10">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K10">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L10">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N10">
+        <v>2.0241428150833338E-2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>7.2562474075925545E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.13567496354538627</v>
+      </c>
+      <c r="Q10">
+        <v>6.6994858553684242E-2</v>
+      </c>
+      <c r="R10">
+        <v>4.1307509286448918E-3</v>
+      </c>
+      <c r="S10">
+        <v>0.52443376829664412</v>
+      </c>
+      <c r="T10">
+        <v>2.8011199244338255E-2</v>
+      </c>
+      <c r="U10">
+        <v>1.2964993198655996</v>
+      </c>
+      <c r="V10">
+        <v>8.2069846201945906E-8</v>
+      </c>
+      <c r="W10">
+        <v>3.8624540947727919</v>
+      </c>
+      <c r="X10">
+        <v>16.836152721963135</v>
+      </c>
+      <c r="Y10">
+        <v>410179785.38580817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="D11">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G11">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I11">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J11">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K11">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L11">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N11">
+        <v>1.9624867338465735E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.6855365071030672E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2.5724822441016101E-3</v>
+      </c>
+      <c r="Q11">
+        <v>6.5303791283154694E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.1384744643598451E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.50958957425708862</v>
+      </c>
+      <c r="T11">
+        <v>2.7343664533199936E-2</v>
+      </c>
+      <c r="U11">
+        <v>1.2581830844215978</v>
+      </c>
+      <c r="V11">
+        <v>6.9467131642506064E-8</v>
+      </c>
+      <c r="W11">
+        <v>3.8624313890426363</v>
+      </c>
+      <c r="X11">
+        <v>16.836177742907108</v>
+      </c>
+      <c r="Y11">
+        <v>410164509.0950532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B12">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8.7500007500000004E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G12">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I12">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J12">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K12">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L12">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N12">
+        <v>2.0600374494395456E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.7004996403926942E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>8.8684620256567384E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.597644364601855E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.6438949483033917E-3</v>
+      </c>
+      <c r="S12">
+        <v>0.54641413963546914</v>
+      </c>
+      <c r="T12">
+        <v>2.7321762406267169E-2</v>
+      </c>
+      <c r="U12">
+        <v>1.3527546931350867</v>
+      </c>
+      <c r="V12">
+        <v>6.1371711428115372E-9</v>
+      </c>
+      <c r="W12">
+        <v>3.8624265238776125</v>
+      </c>
+      <c r="X12">
+        <v>16.836193116408857</v>
+      </c>
+      <c r="Y12">
+        <v>410161756.99300694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B13">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.17500000499999999</v>
+      </c>
+      <c r="D13">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F13">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G13">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I13">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J13">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K13">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L13">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N13">
+        <v>2.0519577725825938E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.6769876909264982E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.17655390860792336</v>
+      </c>
+      <c r="Q13">
+        <v>4.5958950667219348E-2</v>
+      </c>
+      <c r="R13">
+        <v>3.2507832091219118E-3</v>
+      </c>
+      <c r="S13">
+        <v>0.53883180926918817</v>
+      </c>
+      <c r="T13">
+        <v>2.7894940744423266E-2</v>
+      </c>
+      <c r="U13">
+        <v>1.3313610305945156</v>
+      </c>
+      <c r="V13">
+        <v>3.7598403971814132E-8</v>
+      </c>
+      <c r="W13">
+        <v>3.8624427859950918</v>
+      </c>
+      <c r="X13">
+        <v>16.836168816419683</v>
+      </c>
+      <c r="Y13">
+        <v>410173636.52983451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B14">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.2625000025</v>
+      </c>
+      <c r="D14">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G14">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I14">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K14">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L14">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N14">
+        <v>2.0595516377092258E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.8339524071299976E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.26233235080401418</v>
+      </c>
+      <c r="Q14">
+        <v>4.7077757123609648E-2</v>
+      </c>
+      <c r="R14">
+        <v>5.4870872539122969E-4</v>
+      </c>
+      <c r="S14">
+        <v>0.66066582379256922</v>
+      </c>
+      <c r="T14">
+        <v>2.7536005294473882E-2</v>
+      </c>
+      <c r="U14">
+        <v>1.4686522084803579</v>
+      </c>
+      <c r="V14">
+        <v>0.168258410192519</v>
+      </c>
+      <c r="W14">
+        <v>3.8624387318097582</v>
+      </c>
+      <c r="X14">
+        <v>16.836174618608371</v>
+      </c>
+      <c r="Y14">
+        <v>410170940.26342058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B15">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D15">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G15">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I15">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J15">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K15">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L15">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N15">
+        <v>2.0472241279184122E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.8331016496650178E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.34996675959651746</v>
+      </c>
+      <c r="Q15">
+        <v>4.722369392859025E-2</v>
+      </c>
+      <c r="R15">
+        <v>6.3973716293624363E-4</v>
+      </c>
+      <c r="S15">
+        <v>0.66297506166318632</v>
+      </c>
+      <c r="T15">
+        <v>2.7285713823206412E-2</v>
+      </c>
+      <c r="U15">
+        <v>1.4657858338343839</v>
+      </c>
+      <c r="V15">
+        <v>0.17291333479743098</v>
+      </c>
+      <c r="W15">
+        <v>3.862437662449179</v>
+      </c>
+      <c r="X15">
+        <v>16.836176262125928</v>
+      </c>
+      <c r="Y15">
+        <v>410170295.20110595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B16">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G16">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I16">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J16">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K16">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L16">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N16">
+        <v>2.0584146094907194E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.4507217339490642E-2</v>
+      </c>
+      <c r="P16">
+        <v>0.13178545425390206</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4.5573047344973E-2</v>
+      </c>
+      <c r="R16">
+        <v>5.5362296594137616E-3</v>
+      </c>
+      <c r="S16">
+        <v>0.43309344120444015</v>
+      </c>
+      <c r="T16">
+        <v>2.8011204784103804E-2</v>
+      </c>
+      <c r="U16">
+        <v>1.0562751150231238</v>
+      </c>
+      <c r="V16">
+        <v>3.0666718296712414E-10</v>
+      </c>
+      <c r="W16">
+        <v>3.8624706793977777</v>
+      </c>
+      <c r="X16">
+        <v>16.836129781970012</v>
+      </c>
+      <c r="Y16">
+        <v>410193272.81803387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B17">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E17">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G17">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I17">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J17">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K17">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L17">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N17">
+        <v>2.0582846844912087E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.4053394583335183E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.13213008498447468</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>4.5819296283456955E-2</v>
+      </c>
+      <c r="R17">
+        <v>2.4301018759866617E-3</v>
+      </c>
+      <c r="S17">
+        <v>0.43447166591907815</v>
+      </c>
+      <c r="T17">
+        <v>2.8011204543870349E-2</v>
+      </c>
+      <c r="U17">
+        <v>1.0563118244561376</v>
+      </c>
+      <c r="V17">
+        <v>3.0666636244292E-10</v>
+      </c>
+      <c r="W17">
+        <v>3.8624303921183958</v>
+      </c>
+      <c r="X17">
+        <v>16.836190503537928</v>
+      </c>
+      <c r="Y17">
+        <v>410164389.18544316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B18">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G18">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I18">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J18">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K18">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L18">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N18">
+        <v>2.0581721713625781E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.3713254395891491E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.13247245132557994</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>4.6005197047562896E-2</v>
+      </c>
+      <c r="R18">
+        <v>2.5212873090630816E-3</v>
+      </c>
+      <c r="S18">
+        <v>0.43507997595383818</v>
+      </c>
+      <c r="T18">
+        <v>2.8011204679392786E-2</v>
+      </c>
+      <c r="U18">
+        <v>1.0565251372048787</v>
+      </c>
+      <c r="V18">
+        <v>3.066663919332191E-10</v>
+      </c>
+      <c r="W18">
+        <v>3.8624306972464439</v>
+      </c>
+      <c r="X18">
+        <v>16.836189869877327</v>
+      </c>
+      <c r="Y18">
+        <v>410164652.64179868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B19">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G19">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I19">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J19">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K19">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L19">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N19">
+        <v>2.058075402480599E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.338935734658557E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.13280021821907276</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>4.6189629015934999E-2</v>
+      </c>
+      <c r="R19">
+        <v>2.6178119861236817E-3</v>
+      </c>
+      <c r="S19">
+        <v>0.43569153558418816</v>
+      </c>
+      <c r="T19">
+        <v>2.801120478325439E-2</v>
+      </c>
+      <c r="U19">
+        <v>1.0567583503059748</v>
+      </c>
+      <c r="V19">
+        <v>3.0666643183185904E-10</v>
+      </c>
+      <c r="W19">
+        <v>3.8624344800639507</v>
+      </c>
+      <c r="X19">
+        <v>16.836184006246583</v>
+      </c>
+      <c r="Y19">
+        <v>410167405.58602583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B20">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G20">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I20">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J20">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K20">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L20">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N20">
+        <v>2.0579926551374014E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.3080825978275871E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.13310901950134704</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>4.6373695184900803E-2</v>
+      </c>
+      <c r="R20">
+        <v>2.7249202947462019E-3</v>
+      </c>
+      <c r="S20">
+        <v>0.43628116602695616</v>
+      </c>
+      <c r="T20">
+        <v>2.8011204784044622E-2</v>
+      </c>
+      <c r="U20">
+        <v>1.0569683078333196</v>
+      </c>
+      <c r="V20">
+        <v>3.0666650295552156E-10</v>
+      </c>
+      <c r="W20">
+        <v>3.8624312451843701</v>
+      </c>
+      <c r="X20">
+        <v>16.836188737807532</v>
+      </c>
+      <c r="Y20">
+        <v>410165126.65851563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B21">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D21">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G21">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I21">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K21">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L21">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N21">
+        <v>2.058210931446585E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.3833722343480652E-2</v>
+      </c>
+      <c r="P21">
+        <v>0.13236086620429593</v>
+      </c>
+      <c r="Q21">
+        <v>4.5934321493746447E-2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2.4860582412323802E-3</v>
+      </c>
+      <c r="S21">
+        <v>0.43489049615225617</v>
+      </c>
+      <c r="T21">
+        <v>2.8011204663184328E-2</v>
+      </c>
+      <c r="U21">
+        <v>1.0565236793740518</v>
+      </c>
+      <c r="V21">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W21">
+        <v>3.8624363285767682</v>
+      </c>
+      <c r="X21">
+        <v>16.836178573524485</v>
+      </c>
+      <c r="Y21">
+        <v>410169604.53719389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B22">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D22">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6.2250000000000001E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G22">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I22">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J22">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K22">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L22">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N22">
+        <v>2.0582037681943745E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.3819299382320231E-2</v>
+      </c>
+      <c r="P22">
+        <v>0.13234750246996579</v>
+      </c>
+      <c r="Q22">
+        <v>4.5962890530865351E-2</v>
+      </c>
+      <c r="R22" s="4">
+        <v>2.4953309992687498E-3</v>
+      </c>
+      <c r="S22">
+        <v>0.43482711138493213</v>
+      </c>
+      <c r="T22">
+        <v>2.8011204666353092E-2</v>
+      </c>
+      <c r="U22">
+        <v>1.0563118903859476</v>
+      </c>
+      <c r="V22">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W22">
+        <v>3.8624196301571785</v>
+      </c>
+      <c r="X22">
+        <v>16.83621208258613</v>
+      </c>
+      <c r="Y22">
+        <v>410154927.20900589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B23">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D23">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.245E-3</v>
+      </c>
+      <c r="F23">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G23">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I23">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K23">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L23">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N23">
+        <v>2.0582013312712234E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.3803707814364952E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.13233522261290265</v>
+      </c>
+      <c r="Q23">
+        <v>4.5946985168720353E-2</v>
+      </c>
+      <c r="R23" s="4">
+        <v>2.50428889492101E-3</v>
+      </c>
+      <c r="S23">
+        <v>0.43476630941383915</v>
+      </c>
+      <c r="T23">
+        <v>2.801120466895754E-2</v>
+      </c>
+      <c r="U23">
+        <v>1.0560994095487408</v>
+      </c>
+      <c r="V23">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W23">
+        <v>3.8624027795220988</v>
+      </c>
+      <c r="X23">
+        <v>16.836245780555718</v>
+      </c>
+      <c r="Y23">
+        <v>410140150.90609771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B24">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D24">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.8675E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G24">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I24">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J24">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K24">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L24">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N24">
+        <v>2.058195507472858E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.3788934029680882E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.1323223647211173</v>
+      </c>
+      <c r="Q24">
+        <v>4.5959513547173751E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2.513445247188243E-3</v>
+      </c>
+      <c r="S24">
+        <v>0.43470430439996116</v>
+      </c>
+      <c r="T24">
+        <v>2.8011204671055716E-2</v>
+      </c>
+      <c r="U24">
+        <v>1.0558887964729637</v>
+      </c>
+      <c r="V24">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W24">
+        <v>3.8623862254188586</v>
+      </c>
+      <c r="X24">
+        <v>16.836278991415224</v>
+      </c>
+      <c r="Y24">
+        <v>410125598.20298672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B25">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D25">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.49E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G25">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I25">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J25">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K25">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L25">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N25">
+        <v>2.0581906031239879E-2</v>
+      </c>
+      <c r="O25">
+        <v>1.3774177424847812E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.13230945667961047</v>
+      </c>
+      <c r="Q25">
+        <v>4.5971735708685055E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2.5225862244066446E-3</v>
+      </c>
+      <c r="S25">
+        <v>0.43464215551098917</v>
+      </c>
+      <c r="T25">
+        <v>2.8011204672833228E-2</v>
+      </c>
+      <c r="U25">
+        <v>1.0556778998588097</v>
+      </c>
+      <c r="V25">
+        <v>3.066663919332191E-10</v>
+      </c>
+      <c r="W25">
+        <v>3.8623695424187958</v>
+      </c>
+      <c r="X25">
+        <v>16.836312356289572</v>
+      </c>
+      <c r="Y25">
+        <v>410110963.15757006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B26">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D26">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="G26">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I26">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J26">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K26">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L26">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N26">
+        <v>2.0536348870462601E-2</v>
+      </c>
+      <c r="O26">
+        <v>1.8327221999987642E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.12789049507958197</v>
+      </c>
+      <c r="Q26">
+        <v>3.7422529161968351E-2</v>
+      </c>
+      <c r="R26">
+        <v>3.3091737214234571E-4</v>
+      </c>
+      <c r="S26" s="4">
+        <v>2.2719127368171301E-2</v>
+      </c>
+      <c r="T26">
+        <v>2.8011204784478067E-2</v>
+      </c>
+      <c r="U26">
+        <v>9.9999999999096154</v>
+      </c>
+      <c r="V26">
+        <v>3.0666773287446603E-10</v>
+      </c>
+      <c r="W26">
+        <v>3.8624706206976702</v>
+      </c>
+      <c r="X26">
+        <v>16.836492133514994</v>
+      </c>
+      <c r="Y26">
+        <v>410205276.12762839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B27">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D27">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.81325000000000003</v>
+      </c>
+      <c r="G27">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I27">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J27">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K27">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L27">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N27">
+        <v>2.0564207993997306E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.3858420147437652E-2</v>
+      </c>
+      <c r="P27">
+        <v>0.13241671024945653</v>
+      </c>
+      <c r="Q27">
+        <v>4.9753945241845954E-2</v>
+      </c>
+      <c r="R27">
+        <v>6.7116352470914216E-3</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.599263862313966</v>
+      </c>
+      <c r="T27">
+        <v>2.8011204784329287E-2</v>
+      </c>
+      <c r="U27">
+        <v>1.0601277339858597</v>
+      </c>
+      <c r="V27">
+        <v>3.0666632254428006E-10</v>
+      </c>
+      <c r="W27">
+        <v>3.8624332197569751</v>
+      </c>
+      <c r="X27">
+        <v>16.836184718303759</v>
+      </c>
+      <c r="Y27">
+        <v>410166846.71668237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B28">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D28">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.6254999999999999</v>
+      </c>
+      <c r="G28">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I28">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J28">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K28">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L28">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N28">
+        <v>2.0594017452888289E-2</v>
+      </c>
+      <c r="O28">
+        <v>1.3428122236161901E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.13275151885546685</v>
+      </c>
+      <c r="Q28">
+        <v>4.958189818139605E-2</v>
+      </c>
+      <c r="R28">
+        <v>6.2658523060211222E-3</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1.187567628001172</v>
+      </c>
+      <c r="T28">
+        <v>2.7976414113903E-2</v>
+      </c>
+      <c r="U28">
+        <v>1.0614376069775857</v>
+      </c>
+      <c r="V28">
+        <v>1.1195052582874121E-8</v>
+      </c>
+      <c r="W28">
+        <v>3.8624355609235752</v>
+      </c>
+      <c r="X28">
+        <v>16.836180065238835</v>
+      </c>
+      <c r="Y28">
+        <v>410168920.23752928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B29">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D29">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2.4377499999999999</v>
+      </c>
+      <c r="G29">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I29">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J29">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K29">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L29">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N29">
+        <v>2.0605906554263597E-2</v>
+      </c>
+      <c r="O29">
+        <v>1.0861809897490152E-2</v>
+      </c>
+      <c r="P29">
+        <v>0.13534760478587787</v>
+      </c>
+      <c r="Q29">
+        <v>5.0159816197053453E-2</v>
+      </c>
+      <c r="R29">
+        <v>1.5007460020421051E-2</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1.4471073224017779</v>
+      </c>
+      <c r="T29">
+        <v>2.7669561259857992E-2</v>
+      </c>
+      <c r="U29">
+        <v>0.8617728777305117</v>
+      </c>
+      <c r="V29">
+        <v>4.6404492227980487E-10</v>
+      </c>
+      <c r="W29">
+        <v>3.8624360420989494</v>
+      </c>
+      <c r="X29">
+        <v>16.836179148373954</v>
+      </c>
+      <c r="Y29">
+        <v>410169341.37858325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B30">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D30">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="G30">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I30">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J30">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K30">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L30">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N30">
+        <v>2.0620187320096212E-2</v>
+      </c>
+      <c r="O30">
+        <v>1.4232092327558201E-2</v>
+      </c>
+      <c r="P30">
+        <v>0.13188465784034395</v>
+      </c>
+      <c r="Q30">
+        <v>4.8891565030489949E-2</v>
+      </c>
+      <c r="R30">
+        <v>5.1248829230772517E-3</v>
+      </c>
+      <c r="S30" s="4">
+        <v>2.5052609422056831</v>
+      </c>
+      <c r="T30">
+        <v>2.8011204749069069E-2</v>
+      </c>
+      <c r="U30">
+        <v>1.1395311820826257</v>
+      </c>
+      <c r="V30">
+        <v>3.066465623091652E-10</v>
+      </c>
+      <c r="W30">
+        <v>3.8624362005241077</v>
+      </c>
+      <c r="X30">
+        <v>16.836178845404181</v>
+      </c>
+      <c r="Y30">
+        <v>410169480.82398438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B31">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D31">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F31">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.6525198938991999E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I31">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J31">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K31">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L31">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N31">
+        <v>2.0582061603493254E-2</v>
+      </c>
+      <c r="O31">
+        <v>1.3834531658785291E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.13234887045565691</v>
+      </c>
+      <c r="Q31">
+        <v>4.5937982277355752E-2</v>
+      </c>
+      <c r="R31">
+        <v>2.4852704082880418E-3</v>
+      </c>
+      <c r="S31">
+        <v>0.43508910214652718</v>
+      </c>
+      <c r="T31" s="4">
+        <v>2.8011204296286688E-2</v>
+      </c>
+      <c r="U31">
+        <v>1.0564385527205378</v>
+      </c>
+      <c r="V31">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="W31">
+        <v>3.8624275118555804</v>
+      </c>
+      <c r="X31">
+        <v>16.836194746540851</v>
+      </c>
+      <c r="Y31">
+        <v>410162351.07729471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B32">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D32">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F32">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2.6896700324692199E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I32">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J32">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K32">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L32">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N32">
+        <v>2.0582076194100202E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.3831776081909022E-2</v>
+      </c>
+      <c r="P32">
+        <v>0.13235325628500069</v>
+      </c>
+      <c r="Q32">
+        <v>4.5937199370231246E-2</v>
+      </c>
+      <c r="R32">
+        <v>2.4871729569727217E-3</v>
+      </c>
+      <c r="S32">
+        <v>0.43498697373975714</v>
+      </c>
+      <c r="T32" s="4">
+        <v>2.80112046843272E-2</v>
+      </c>
+      <c r="U32">
+        <v>1.0564512248801168</v>
+      </c>
+      <c r="V32">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="W32">
+        <v>3.8624305943142931</v>
+      </c>
+      <c r="X32">
+        <v>16.836190083355653</v>
+      </c>
+      <c r="Y32">
+        <v>410164563.73382473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B33">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D33">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F33">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2.72682017103924E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I33">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J33">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K33">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L33">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N33">
+        <v>2.0582090711383314E-2</v>
+      </c>
+      <c r="O33">
+        <v>1.3828450602429522E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.13235658398455943</v>
+      </c>
+      <c r="Q33">
+        <v>4.5921356242977149E-2</v>
+      </c>
+      <c r="R33">
+        <v>2.4888973335962217E-3</v>
+      </c>
+      <c r="S33">
+        <v>0.43488105135115618</v>
+      </c>
+      <c r="T33" s="4">
+        <v>2.801120407189886E-2</v>
+      </c>
+      <c r="U33">
+        <v>1.0564509096630927</v>
+      </c>
+      <c r="V33">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W33">
+        <v>3.8624305932697807</v>
+      </c>
+      <c r="X33">
+        <v>16.836190084921803</v>
+      </c>
+      <c r="Y33">
+        <v>410164562.98662198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B34">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D34">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F34">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2.76397030960925E-2</v>
+      </c>
+      <c r="H34">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I34">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J34">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K34">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L34">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N34">
+        <v>2.0582060686250278E-2</v>
+      </c>
+      <c r="O34">
+        <v>1.3826540324584712E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.13236179767161621</v>
+      </c>
+      <c r="Q34">
+        <v>4.5945794339817853E-2</v>
+      </c>
+      <c r="R34">
+        <v>2.4902340485186917E-3</v>
+      </c>
+      <c r="S34">
+        <v>0.43478240055345918</v>
+      </c>
+      <c r="T34" s="4">
+        <v>2.8011204458868243E-2</v>
+      </c>
+      <c r="U34">
+        <v>1.0564768117203327</v>
+      </c>
+      <c r="V34">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W34">
+        <v>3.8624367764162968</v>
+      </c>
+      <c r="X34">
+        <v>16.83618075022418</v>
+      </c>
+      <c r="Y34">
+        <v>410168999.01503921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B35">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D35">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F35">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.8011204481792701E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I35">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J35">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K35">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L35">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N35">
+        <v>2.0582089265981277E-2</v>
+      </c>
+      <c r="O35">
+        <v>1.38230747344164E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.1323620127660653</v>
+      </c>
+      <c r="Q35">
+        <v>4.5936395154355547E-2</v>
+      </c>
+      <c r="R35">
+        <v>2.4926642425883616E-3</v>
+      </c>
+      <c r="S35">
+        <v>0.43466644552722311</v>
+      </c>
+      <c r="T35" s="4">
+        <v>2.801120484578605E-2</v>
+      </c>
+      <c r="U35">
+        <v>1.0564505436077527</v>
+      </c>
+      <c r="V35">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W35">
+        <v>3.8624305945426092</v>
+      </c>
+      <c r="X35">
+        <v>16.836190082971569</v>
+      </c>
+      <c r="Y35">
+        <v>410164563.90608162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B36">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D36">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F36">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G36">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="I36">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J36">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K36">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L36">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N36">
+        <v>2.0616518839753614E-2</v>
+      </c>
+      <c r="O36">
+        <v>1.8158912815011089E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.12816949798872171</v>
+      </c>
+      <c r="Q36">
+        <v>4.2712830030967951E-2</v>
+      </c>
+      <c r="R36">
+        <v>8.2554927108737103E-3</v>
+      </c>
+      <c r="S36">
+        <v>0.61335568793875561</v>
+      </c>
+      <c r="T36">
+        <v>2.6525199241721815E-2</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1.0000022204460493E-8</v>
+      </c>
+      <c r="V36">
+        <v>1.1903020692811593E-2</v>
+      </c>
+      <c r="W36">
+        <v>3.8624330596361101</v>
+      </c>
+      <c r="X36">
+        <v>16.836197298660704</v>
+      </c>
+      <c r="Y36">
+        <v>410167134.3842923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B37">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D37">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F37">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G37">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2.5000000075000002</v>
+      </c>
+      <c r="I37">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J37">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K37">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L37">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N37">
+        <v>2.0581821708790429E-2</v>
+      </c>
+      <c r="O37">
+        <v>1.675310569697426E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.12943386065413706</v>
+      </c>
+      <c r="Q37">
+        <v>4.5966273392116147E-2</v>
+      </c>
+      <c r="R37">
+        <v>2.530021672153362E-3</v>
+      </c>
+      <c r="S37">
+        <v>0.53892743115152586</v>
+      </c>
+      <c r="T37">
+        <v>2.7484220059093647E-2</v>
+      </c>
+      <c r="U37" s="4">
+        <v>2.279001756526065</v>
+      </c>
+      <c r="V37">
+        <v>3.1619985917802351E-9</v>
+      </c>
+      <c r="W37">
+        <v>3.8624306266779529</v>
+      </c>
+      <c r="X37">
+        <v>16.836190014841982</v>
+      </c>
+      <c r="Y37">
+        <v>410164591.39359951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B38">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D38">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F38">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G38">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>5.0000000050000004</v>
+      </c>
+      <c r="I38">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J38">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K38">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L38">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N38">
+        <v>2.058169308724965E-2</v>
+      </c>
+      <c r="O38">
+        <v>1.6711138006243281E-2</v>
+      </c>
+      <c r="P38">
+        <v>0.12949717378376696</v>
+      </c>
+      <c r="Q38">
+        <v>4.6006008763876949E-2</v>
+      </c>
+      <c r="R38">
+        <v>2.6044997039232319E-3</v>
+      </c>
+      <c r="S38">
+        <v>0.53819870375826862</v>
+      </c>
+      <c r="T38">
+        <v>2.7597468385463935E-2</v>
+      </c>
+      <c r="U38" s="4">
+        <v>4.5531049472130505</v>
+      </c>
+      <c r="V38">
+        <v>1.6846246030099987E-9</v>
+      </c>
+      <c r="W38">
+        <v>3.862467120176968</v>
+      </c>
+      <c r="X38">
+        <v>16.836134842950141</v>
+      </c>
+      <c r="Y38">
+        <v>410190805.15608186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B39">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D39">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F39">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G39">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>7.5000000025000002</v>
+      </c>
+      <c r="I39">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J39">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K39">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L39">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N39">
+        <v>2.0581768416168541E-2</v>
+      </c>
+      <c r="O39">
+        <v>1.6674459072818473E-2</v>
+      </c>
+      <c r="P39">
+        <v>0.12951782522994335</v>
+      </c>
+      <c r="Q39">
+        <v>4.6017808015743948E-2</v>
+      </c>
+      <c r="R39">
+        <v>2.7287966120915618E-3</v>
+      </c>
+      <c r="S39">
+        <v>0.53709898592592298</v>
+      </c>
+      <c r="T39">
+        <v>2.7754782889233925E-2</v>
+      </c>
+      <c r="U39" s="4">
+        <v>6.8129585457475716</v>
+      </c>
+      <c r="V39">
+        <v>1.2757629432036399E-9</v>
+      </c>
+      <c r="W39">
+        <v>3.862430628568132</v>
+      </c>
+      <c r="X39">
+        <v>16.836189996415644</v>
+      </c>
+      <c r="Y39">
+        <v>410164596.59014297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B40">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D40">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F40">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G40">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J40">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K40">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L40">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N40">
+        <v>2.0581640913818925E-2</v>
+      </c>
+      <c r="O40">
+        <v>1.7022549058681061E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.12916573335736611</v>
+      </c>
+      <c r="Q40">
+        <v>4.6424638933164751E-2</v>
+      </c>
+      <c r="R40">
+        <v>2.5734231943921118E-3</v>
+      </c>
+      <c r="S40">
+        <v>0.54920200917780637</v>
+      </c>
+      <c r="T40">
+        <v>2.7948777512046337E-2</v>
+      </c>
+      <c r="U40" s="4">
+        <v>9.2240977308758723</v>
+      </c>
+      <c r="V40">
+        <v>4.1072041826600847E-9</v>
+      </c>
+      <c r="W40">
+        <v>3.8624306664187666</v>
+      </c>
+      <c r="X40">
+        <v>16.836189937353371</v>
+      </c>
+      <c r="Y40">
+        <v>410164624.20663869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B41">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D41">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F41">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G41">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H41">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K41">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L41">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N41">
+        <v>2.0581601941584551E-2</v>
+      </c>
+      <c r="O41">
+        <v>1.3826125661458051E-2</v>
+      </c>
+      <c r="P41">
+        <v>0.13235917258700389</v>
+      </c>
+      <c r="Q41">
+        <v>4.598686290592665E-2</v>
+      </c>
+      <c r="R41">
+        <v>2.4853079197601018E-3</v>
+      </c>
+      <c r="S41">
+        <v>0.43726630609992012</v>
+      </c>
+      <c r="T41">
+        <v>2.8011204585046679E-2</v>
+      </c>
+      <c r="U41">
+        <v>1.0561097435140308</v>
+      </c>
+      <c r="V41" s="4">
+        <v>4.2354218569619302E-14</v>
+      </c>
+      <c r="W41">
+        <v>3.8624307871385146</v>
+      </c>
+      <c r="X41">
+        <v>16.836189749286412</v>
+      </c>
+      <c r="Y41">
+        <v>410164712.13149357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B42">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D42">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F42">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G42">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H42">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I42" s="5">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="J42">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K42">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L42">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N42">
+        <v>2.0583750027584155E-2</v>
+      </c>
+      <c r="O42">
+        <v>1.3838312461300281E-2</v>
+      </c>
+      <c r="P42">
+        <v>0.1323463551248262</v>
+      </c>
+      <c r="Q42">
+        <v>4.5729451725188351E-2</v>
+      </c>
+      <c r="R42">
+        <v>2.5055994474117316E-3</v>
+      </c>
+      <c r="S42">
+        <v>0.42667593055494613</v>
+      </c>
+      <c r="T42">
+        <v>2.8011204771392337E-2</v>
+      </c>
+      <c r="U42">
+        <v>1.0575636628077667</v>
+      </c>
+      <c r="V42" s="4">
+        <v>4.2500725161431774E-14</v>
+      </c>
+      <c r="W42">
+        <v>3.8624303419353399</v>
+      </c>
+      <c r="X42">
+        <v>16.836190614420762</v>
+      </c>
+      <c r="Y42">
+        <v>410164347.29280227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B43">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D43">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G43">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H43">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I43" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J43">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K43">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L43">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N43">
+        <v>2.0585768181077917E-2</v>
+      </c>
+      <c r="O43">
+        <v>1.3849588039597351E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.13233475825810331</v>
+      </c>
+      <c r="Q43">
+        <v>4.5443469534400149E-2</v>
+      </c>
+      <c r="R43">
+        <v>2.5295037999011217E-3</v>
+      </c>
+      <c r="S43">
+        <v>0.41664223452299715</v>
+      </c>
+      <c r="T43">
+        <v>2.8011204783483911E-2</v>
+      </c>
+      <c r="U43">
+        <v>1.0588142904689037</v>
+      </c>
+      <c r="V43" s="4">
+        <v>4.2590930782182568E-14</v>
+      </c>
+      <c r="W43">
+        <v>3.8624300160444056</v>
+      </c>
+      <c r="X43">
+        <v>16.836191302769507</v>
+      </c>
+      <c r="Y43">
+        <v>410164068.13061029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B44">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D44">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E44">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F44">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G44">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H44">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.1125</v>
+      </c>
+      <c r="J44">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K44">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L44">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N44">
+        <v>2.0587690225692228E-2</v>
+      </c>
+      <c r="O44">
+        <v>1.3860034446166441E-2</v>
+      </c>
+      <c r="P44">
+        <v>0.13232471439935065</v>
+      </c>
+      <c r="Q44">
+        <v>4.519104231335265E-2</v>
+      </c>
+      <c r="R44">
+        <v>2.5529869288842318E-3</v>
+      </c>
+      <c r="S44">
+        <v>0.40709483233626914</v>
+      </c>
+      <c r="T44">
+        <v>2.8011204783713998E-2</v>
+      </c>
+      <c r="U44">
+        <v>1.0598996065688717</v>
+      </c>
+      <c r="V44" s="4">
+        <v>4.3007264416417001E-14</v>
+      </c>
+      <c r="W44">
+        <v>3.8624307072514004</v>
+      </c>
+      <c r="X44">
+        <v>16.83619045622547</v>
+      </c>
+      <c r="Y44">
+        <v>410164519.19493884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B45">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D45">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F45">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G45">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H45">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="J45">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K45">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L45">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N45">
+        <v>2.058952949138107E-2</v>
+      </c>
+      <c r="O45">
+        <v>1.386897657030282E-2</v>
+      </c>
+      <c r="P45">
+        <v>0.13231508473287226</v>
+      </c>
+      <c r="Q45">
+        <v>4.4947169895568947E-2</v>
+      </c>
+      <c r="R45">
+        <v>2.5731360018702819E-3</v>
+      </c>
+      <c r="S45">
+        <v>0.39798096902288815</v>
+      </c>
+      <c r="T45">
+        <v>2.8011204783810455E-2</v>
+      </c>
+      <c r="U45">
+        <v>1.0608337885508308</v>
+      </c>
+      <c r="V45" s="4">
+        <v>4.2993386628609187E-14</v>
+      </c>
+      <c r="W45">
+        <v>3.8624293592058283</v>
+      </c>
+      <c r="X45">
+        <v>16.836192699121806</v>
+      </c>
+      <c r="Y45">
+        <v>410163506.51297718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B46">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D46">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E46">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F46">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G46">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H46">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I46">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K46">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L46">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N46">
+        <v>2.0675714262197394E-2</v>
+      </c>
+      <c r="O46">
+        <v>1.0066347806007691E-2</v>
+      </c>
+      <c r="P46">
+        <v>0.13596608240340058</v>
+      </c>
+      <c r="Q46">
+        <v>4.1783200395136846E-2</v>
+      </c>
+      <c r="R46">
+        <v>1.0347717106730294E-9</v>
+      </c>
+      <c r="S46">
+        <v>0.31497852339121912</v>
+      </c>
+      <c r="T46">
+        <v>2.7508839224274544E-2</v>
+      </c>
+      <c r="U46">
+        <v>0.73975661670930171</v>
+      </c>
+      <c r="V46">
+        <v>3.0667302204634428E-10</v>
+      </c>
+      <c r="W46" s="4">
+        <v>1.500017027205701</v>
+      </c>
+      <c r="X46">
+        <v>16.836092075561929</v>
+      </c>
+      <c r="Y46">
+        <v>410174109.80333436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B47">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D47">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G47">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H47">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I47">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2.125</v>
+      </c>
+      <c r="K47">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L47">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N47">
+        <v>2.0477295533983638E-2</v>
+      </c>
+      <c r="O47">
+        <v>1.4014076021741671E-2</v>
+      </c>
+      <c r="P47">
+        <v>0.13223466455373314</v>
+      </c>
+      <c r="Q47">
+        <v>4.4984505905907149E-2</v>
+      </c>
+      <c r="R47">
+        <v>6.8566771473409867E-4</v>
+      </c>
+      <c r="S47">
+        <v>0.49131839721135817</v>
+      </c>
+      <c r="T47">
+        <v>2.8011204754213839E-2</v>
+      </c>
+      <c r="U47">
+        <v>1.0944277106267286</v>
+      </c>
+      <c r="V47">
+        <v>0.1050359237849128</v>
+      </c>
+      <c r="W47" s="4">
+        <v>2.1250126251966326</v>
+      </c>
+      <c r="X47">
+        <v>16.83613736957113</v>
+      </c>
+      <c r="Y47">
+        <v>410175233.95467472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B48">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D48">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E48">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F48">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G48">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H48">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I48">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="K48">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L48">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N48">
+        <v>2.0452709992642142E-2</v>
+      </c>
+      <c r="O48">
+        <v>1.4023258558350201E-2</v>
+      </c>
+      <c r="P48">
+        <v>0.13234251827289928</v>
+      </c>
+      <c r="Q48">
+        <v>4.8302670305323751E-2</v>
+      </c>
+      <c r="R48">
+        <v>4.0817866456735012E-3</v>
+      </c>
+      <c r="S48">
+        <v>0.44019095848785517</v>
+      </c>
+      <c r="T48">
+        <v>2.8011204783038535E-2</v>
+      </c>
+      <c r="U48">
+        <v>1.0712613544920997</v>
+      </c>
+      <c r="V48">
+        <v>3.0666750215624372E-10</v>
+      </c>
+      <c r="W48" s="4">
+        <v>2.7500132247774749</v>
+      </c>
+      <c r="X48">
+        <v>16.836150775039631</v>
+      </c>
+      <c r="Y48">
+        <v>410177275.60329235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B49">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D49">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F49">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G49">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H49">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I49">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J49" s="5">
+        <v>3.375</v>
+      </c>
+      <c r="K49">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L49">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N49">
+        <v>2.0543410211957453E-2</v>
+      </c>
+      <c r="O49">
+        <v>1.3837221634777342E-2</v>
+      </c>
+      <c r="P49">
+        <v>0.13238696269617839</v>
+      </c>
+      <c r="Q49">
+        <v>4.5656599165619753E-2</v>
+      </c>
+      <c r="R49">
+        <v>2.4884234748729817E-3</v>
+      </c>
+      <c r="S49">
+        <v>0.43603474201890013</v>
+      </c>
+      <c r="T49">
+        <v>2.8011204520723532E-2</v>
+      </c>
+      <c r="U49">
+        <v>1.0599785370128387</v>
+      </c>
+      <c r="V49">
+        <v>3.0666640234155995E-10</v>
+      </c>
+      <c r="W49" s="4">
+        <v>3.3749955833323075</v>
+      </c>
+      <c r="X49">
+        <v>16.83619005058738</v>
+      </c>
+      <c r="Y49">
+        <v>410165608.97526205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B50">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D50">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F50">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G50">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H50">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I50">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J50" s="5">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L50">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N50">
+        <v>2.0609534034488473E-2</v>
+      </c>
+      <c r="O50">
+        <v>1.3825587401562821E-2</v>
+      </c>
+      <c r="P50">
+        <v>0.13233262611617955</v>
+      </c>
+      <c r="Q50">
+        <v>4.5945582318920847E-2</v>
+      </c>
+      <c r="R50">
+        <v>2.4853370791728716E-3</v>
+      </c>
+      <c r="S50">
+        <v>0.43463098315237114</v>
+      </c>
+      <c r="T50">
+        <v>2.8011204595969751E-2</v>
+      </c>
+      <c r="U50">
+        <v>1.0556376654090667</v>
+      </c>
+      <c r="V50">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W50" s="4">
+        <v>3.9999955880217812</v>
+      </c>
+      <c r="X50">
+        <v>16.836187663530691</v>
+      </c>
+      <c r="Y50">
+        <v>410165495.67857516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B51">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D51">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F51">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G51">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H51">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I51">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J51">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K51" s="5">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N51">
+        <v>1.970564450243599E-2</v>
+      </c>
+      <c r="O51">
+        <v>9.2860172511999607E-3</v>
+      </c>
+      <c r="P51">
+        <v>1.6087794575433564E-2</v>
+      </c>
+      <c r="Q51">
+        <v>5.5807530485530027E-2</v>
+      </c>
+      <c r="R51">
+        <v>2.257259606823752E-10</v>
+      </c>
+      <c r="S51">
+        <v>0.34572615444935118</v>
+      </c>
+      <c r="T51">
+        <v>2.7303517310535989E-2</v>
+      </c>
+      <c r="U51">
+        <v>0.78524251479817975</v>
+      </c>
+      <c r="V51">
+        <v>1.5415681127450842E-9</v>
+      </c>
+      <c r="W51">
+        <v>3.1239499713299188</v>
+      </c>
+      <c r="X51" s="4">
+        <v>10.574377346470772</v>
+      </c>
+      <c r="Y51">
+        <v>217241229.71694574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B52">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D52">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E52">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F52">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G52">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H52">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I52">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J52">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K52" s="5">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N52">
+        <v>1.9680286896813691E-2</v>
+      </c>
+      <c r="O52">
+        <v>1.4265756247054902E-2</v>
+      </c>
+      <c r="P52">
+        <v>5.7746085233275624E-3</v>
+      </c>
+      <c r="Q52">
+        <v>6.1967710714640682E-2</v>
+      </c>
+      <c r="R52">
+        <v>2.2570375567978161E-10</v>
+      </c>
+      <c r="S52">
+        <v>0.74797557641077617</v>
+      </c>
+      <c r="T52">
+        <v>2.7598123103940896E-2</v>
+      </c>
+      <c r="U52">
+        <v>1.3646458029134718</v>
+      </c>
+      <c r="V52">
+        <v>0.430341654173378</v>
+      </c>
+      <c r="W52">
+        <v>3.5245072807648499</v>
+      </c>
+      <c r="X52" s="4">
+        <v>11.202598759654302</v>
+      </c>
+      <c r="Y52">
+        <v>200196189.60492173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B53">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D53">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E53">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F53">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G53">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H53">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I53">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J53">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K53" s="5">
+        <v>14</v>
+      </c>
+      <c r="L53">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N53">
+        <v>2.0009510493968305E-2</v>
+      </c>
+      <c r="O53">
+        <v>1.412049264543894E-2</v>
+      </c>
+      <c r="P53">
+        <v>0.13272338420719682</v>
+      </c>
+      <c r="Q53">
+        <v>5.158166122325971E-2</v>
+      </c>
+      <c r="R53">
+        <v>5.8021013131654715E-3</v>
+      </c>
+      <c r="S53">
+        <v>0.43679074148364416</v>
+      </c>
+      <c r="T53">
+        <v>2.8011204784110573E-2</v>
+      </c>
+      <c r="U53">
+        <v>1.0641029494353327</v>
+      </c>
+      <c r="V53">
+        <v>3.066670632712043E-10</v>
+      </c>
+      <c r="W53">
+        <v>3.8624247055279306</v>
+      </c>
+      <c r="X53" s="4">
+        <v>14.000014411321207</v>
+      </c>
+      <c r="Y53">
+        <v>410161117.50651902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B54">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D54">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E54">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F54">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G54">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H54">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I54">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J54">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K54" s="5">
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N54">
+        <v>2.030808740648472E-2</v>
+      </c>
+      <c r="O54">
+        <v>1.394251751874628E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.13251470657616049</v>
+      </c>
+      <c r="Q54">
+        <v>4.9331366328054849E-2</v>
+      </c>
+      <c r="R54">
+        <v>2.520809813551482E-3</v>
+      </c>
+      <c r="S54">
+        <v>0.43570869686621216</v>
+      </c>
+      <c r="T54">
+        <v>2.8011204558443019E-2</v>
+      </c>
+      <c r="U54">
+        <v>1.0594215297065157</v>
+      </c>
+      <c r="V54">
+        <v>3.0666638325960172E-10</v>
+      </c>
+      <c r="W54">
+        <v>3.8624255863908097</v>
+      </c>
+      <c r="X54" s="4">
+        <v>16.000017460608717</v>
+      </c>
+      <c r="Y54">
+        <v>410161185.82197005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B55">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D55">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E55">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F55">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G55">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H55">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I55">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J55">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K55" s="5">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>410169604.52569973</v>
+      </c>
+      <c r="N55">
+        <v>2.0657123612810371E-2</v>
+      </c>
+      <c r="O55">
+        <v>1.3824615358325541E-2</v>
+      </c>
+      <c r="P55">
+        <v>0.132292143593147</v>
+      </c>
+      <c r="Q55">
+        <v>4.5888600030822749E-2</v>
+      </c>
+      <c r="R55">
+        <v>2.5241827205579317E-3</v>
+      </c>
+      <c r="S55">
+        <v>0.43440740249744414</v>
+      </c>
+      <c r="T55">
+        <v>2.8011204633107703E-2</v>
+      </c>
+      <c r="U55">
+        <v>1.0549982140087257</v>
+      </c>
+      <c r="V55">
+        <v>3.0666640234155995E-10</v>
+      </c>
+      <c r="W55">
+        <v>3.8624417676015024</v>
+      </c>
+      <c r="X55" s="4">
+        <v>17.999993082151459</v>
+      </c>
+      <c r="Y55">
+        <v>410172654.4296174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B56">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D56">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E56">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F56">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G56">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H56">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I56">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J56">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K56">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L56" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="N56">
+        <v>2.0183281331897916E-2</v>
+      </c>
+      <c r="O56">
+        <v>1.3764787868517852E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.13281905687895582</v>
+      </c>
+      <c r="Q56">
+        <v>4.223653825186615E-2</v>
+      </c>
+      <c r="R56">
+        <v>2.495022075335202E-3</v>
+      </c>
+      <c r="S56">
+        <v>0.43631557107577412</v>
+      </c>
+      <c r="T56">
+        <v>2.801120468530199E-2</v>
+      </c>
+      <c r="U56">
+        <v>1.0597290813319038</v>
+      </c>
+      <c r="V56">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="W56">
+        <v>3.8624302042926506</v>
+      </c>
+      <c r="X56">
+        <v>16.836190674126151</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>39999481.047737971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B57">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D57">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F57">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G57">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H57">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I57">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J57">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K57">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L57" s="5">
+        <v>342500000</v>
+      </c>
+      <c r="N57">
+        <v>2.0516111203114796E-2</v>
+      </c>
+      <c r="O57">
+        <v>1.3836676648654782E-2</v>
+      </c>
+      <c r="P57">
+        <v>0.13241431298858861</v>
+      </c>
+      <c r="Q57">
+        <v>4.6027529793504253E-2</v>
+      </c>
+      <c r="R57">
+        <v>2.4857524750656616E-3</v>
+      </c>
+      <c r="S57">
+        <v>0.43507474154155112</v>
+      </c>
+      <c r="T57">
+        <v>2.8011204659906419E-2</v>
+      </c>
+      <c r="U57">
+        <v>1.0569935124852228</v>
+      </c>
+      <c r="V57">
+        <v>3.0666637285126086E-10</v>
+      </c>
+      <c r="W57">
+        <v>3.8624305942531452</v>
+      </c>
+      <c r="X57">
+        <v>16.836190083433841</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>342495790.80168349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B58">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D58">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E58">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F58">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G58">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H58">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I58">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J58">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K58">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L58" s="5">
+        <v>645000000</v>
+      </c>
+      <c r="N58">
+        <v>2.0110451801103699E-2</v>
+      </c>
+      <c r="O58">
+        <v>1.3928016115612892E-2</v>
+      </c>
+      <c r="P58">
+        <v>0.13264970472227197</v>
+      </c>
+      <c r="Q58">
+        <v>4.8429299760550951E-2</v>
+      </c>
+      <c r="R58">
+        <v>2.4718969730782017E-3</v>
+      </c>
+      <c r="S58">
+        <v>0.43599575655386114</v>
+      </c>
+      <c r="T58">
+        <v>2.8011204566147526E-2</v>
+      </c>
+      <c r="U58">
+        <v>1.0597041089778167</v>
+      </c>
+      <c r="V58">
+        <v>3.0666636244292E-10</v>
+      </c>
+      <c r="W58">
+        <v>3.8622822028757651</v>
+      </c>
+      <c r="X58">
+        <v>16.83641428124168</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>644824503.22121215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B59">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C59">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D59">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E59">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F59">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G59">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H59">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I59">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J59">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K59">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L59" s="5">
+        <v>947500000</v>
+      </c>
+      <c r="N59">
+        <v>1.9787407119875994E-2</v>
+      </c>
+      <c r="O59">
+        <v>1.4609663137566592E-2</v>
+      </c>
+      <c r="P59">
+        <v>0.13249329645293909</v>
+      </c>
+      <c r="Q59">
+        <v>6.7824140989481835E-2</v>
+      </c>
+      <c r="R59">
+        <v>7.0619429476929015E-3</v>
+      </c>
+      <c r="S59">
+        <v>0.43612809878219716</v>
+      </c>
+      <c r="T59">
+        <v>2.8011204429925048E-2</v>
+      </c>
+      <c r="U59">
+        <v>1.0629862755002728</v>
+      </c>
+      <c r="V59">
+        <v>3.0666694184056098E-10</v>
+      </c>
+      <c r="W59">
+        <v>3.8624305943209589</v>
+      </c>
+      <c r="X59">
+        <v>16.836190083331299</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>947488355.68796098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2.0055852439826098E-2</v>
+      </c>
+      <c r="B60">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.12795383987051356</v>
+      </c>
+      <c r="D60">
+        <v>6.0910169953094451E-2</v>
+      </c>
+      <c r="E60">
+        <v>2.1363022568155168E-4</v>
+      </c>
+      <c r="F60">
+        <v>0.59140871031061615</v>
+      </c>
+      <c r="G60">
+        <v>2.7305961302707571E-2</v>
+      </c>
+      <c r="H60">
+        <v>1.4638544519096337</v>
+      </c>
+      <c r="I60">
+        <v>8.3027683066240025E-3</v>
+      </c>
+      <c r="J60">
+        <v>3.8624363285606438</v>
+      </c>
+      <c r="K60">
+        <v>16.836178573548757</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1250000000</v>
+      </c>
+      <c r="N60">
+        <v>1.9638086369068244E-2</v>
+      </c>
+      <c r="O60">
+        <v>1.4525197595103291E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.13258844032124362</v>
+      </c>
+      <c r="Q60">
+        <v>6.4787163252997187E-2</v>
+      </c>
+      <c r="R60">
+        <v>6.8914519441771417E-3</v>
+      </c>
+      <c r="S60">
+        <v>0.43623912908477114</v>
+      </c>
+      <c r="T60">
+        <v>2.8011204784085586E-2</v>
+      </c>
+      <c r="U60">
+        <v>1.0631452413086158</v>
+      </c>
+      <c r="V60">
+        <v>3.0666689326830365E-10</v>
+      </c>
+      <c r="W60">
+        <v>3.8621770135072979</v>
+      </c>
+      <c r="X60">
+        <v>16.836572729904077</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>1249429484.5678437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>